--- a/python/resources/Patients_Catalog.xlsx
+++ b/python/resources/Patients_Catalog.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\BioTAU\Huntington\python\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E3E352-BEEB-4447-9786-FCC4F687E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="pPkJ0ZVRiC7LSIDCXKY1XSWm5xArJ1zqLzO0OIsZOks="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="84">
   <si>
     <t>Cell_Type</t>
   </si>
@@ -190,9 +201,6 @@
     <t>HGADFN0367</t>
   </si>
   <si>
-    <t>NA0016</t>
-  </si>
-  <si>
     <t>NA0025</t>
   </si>
   <si>
@@ -205,9 +213,6 @@
     <t>NA0157</t>
   </si>
   <si>
-    <t>NA0170</t>
-  </si>
-  <si>
     <t>NA0205</t>
   </si>
   <si>
@@ -239,9 +244,6 @@
   </si>
   <si>
     <t>NA0633</t>
-  </si>
-  <si>
-    <t>NA0663</t>
   </si>
   <si>
     <t>NA0730</t>
@@ -280,27 +282,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,14 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -330,64 +327,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -417,79 +408,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,158 +432,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -663,26 +567,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G997"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -728,7 +635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -751,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -774,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -797,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -820,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -860,13 +767,13 @@
         <v>44</v>
       </c>
       <c r="F8" s="6">
-        <v>118.6441</v>
+        <v>118.64409999999999</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -889,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -912,7 +819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -935,7 +842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -958,7 +865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -981,7 +888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1021,13 +928,13 @@
         <v>45</v>
       </c>
       <c r="F15" s="6">
-        <v>131.7411</v>
+        <v>131.74109999999999</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1044,13 +951,13 @@
         <v>50</v>
       </c>
       <c r="F16" s="6">
-        <v>114.0216</v>
+        <v>114.02160000000001</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1067,13 +974,13 @@
         <v>45</v>
       </c>
       <c r="F17" s="6">
-        <v>69.33744</v>
+        <v>69.337440000000001</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1113,13 +1020,13 @@
         <v>45</v>
       </c>
       <c r="F19" s="6">
-        <v>76.27119</v>
+        <v>76.271190000000004</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1136,13 +1043,13 @@
         <v>49</v>
       </c>
       <c r="F20" s="6">
-        <v>111.2481</v>
+        <v>111.24809999999999</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1159,13 +1066,13 @@
         <v>48</v>
       </c>
       <c r="F21" s="6">
-        <v>110.9399</v>
+        <v>110.93989999999999</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1182,13 +1089,13 @@
         <v>41</v>
       </c>
       <c r="F22" s="6">
-        <v>74.57627</v>
+        <v>74.576269999999994</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1205,13 +1112,13 @@
         <v>44</v>
       </c>
       <c r="F23" s="6">
-        <v>84.12943</v>
+        <v>84.129429999999999</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1228,13 +1135,13 @@
         <v>46</v>
       </c>
       <c r="F24" s="6">
-        <v>91.21726</v>
+        <v>91.217259999999996</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1251,13 +1158,13 @@
         <v>46</v>
       </c>
       <c r="F25" s="6">
-        <v>106.0092</v>
+        <v>106.00920000000001</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1274,13 +1181,13 @@
         <v>43</v>
       </c>
       <c r="F26" s="6">
-        <v>94.14484</v>
+        <v>94.144840000000002</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1297,13 +1204,13 @@
         <v>50</v>
       </c>
       <c r="F27" s="6">
-        <v>126.3482</v>
+        <v>126.34820000000001</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15.75">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -1320,13 +1227,13 @@
         <v>43</v>
       </c>
       <c r="F28" s="6">
-        <v>96.14792</v>
+        <v>96.147919999999999</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15.75">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1349,7 +1256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1366,13 +1273,13 @@
         <v>46</v>
       </c>
       <c r="F30" s="6">
-        <v>76.42527</v>
+        <v>76.425269999999998</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1389,13 +1296,13 @@
         <v>54</v>
       </c>
       <c r="F31" s="6">
-        <v>103.5439</v>
+        <v>103.54389999999999</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1412,13 +1319,13 @@
         <v>45</v>
       </c>
       <c r="F32" s="6">
-        <v>110.9399</v>
+        <v>110.93989999999999</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1435,13 +1342,13 @@
         <v>45</v>
       </c>
       <c r="F33" s="6">
-        <v>138.6749</v>
+        <v>138.67490000000001</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -1464,7 +1371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1510,7 +1417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -1533,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -1556,7 +1463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -1579,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -1602,7 +1509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -1625,7 +1532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1648,17 +1555,17 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -1671,17 +1578,17 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="7">
-        <v>48</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -1694,17 +1601,17 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -1717,17 +1624,17 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C46" s="7">
-        <v>42</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -1740,18 +1647,18 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C47" s="7">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>10</v>
@@ -1763,18 +1670,18 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C48" s="7">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>10</v>
@@ -1786,18 +1693,18 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="7">
-        <v>68</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>10</v>
@@ -1809,7 +1716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
@@ -1817,10 +1724,10 @@
         <v>65</v>
       </c>
       <c r="C50" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>10</v>
@@ -1832,7 +1739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -1840,7 +1747,7 @@
         <v>66</v>
       </c>
       <c r="C51" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
@@ -1855,18 +1762,18 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="7">
-        <v>62</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>10</v>
@@ -1878,17 +1785,17 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C53" s="7">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -1901,18 +1808,18 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C54" s="7">
-        <v>53</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>10</v>
@@ -1924,7 +1831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -1932,7 +1839,7 @@
         <v>70</v>
       </c>
       <c r="C55" s="7">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
@@ -1947,7 +1854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1862,7 @@
         <v>71</v>
       </c>
       <c r="C56" s="7">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>9</v>
@@ -1970,203 +1877,203 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="7">
+        <v>50</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="7">
+        <v>51</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="7">
+        <v>46</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="7">
+        <v>50</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="7">
         <v>48</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="7">
+        <v>52</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75">
-      <c r="A58" s="3" t="s">
+      <c r="E62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="7">
-        <v>40</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="B63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="7">
+        <v>61</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="7">
+        <v>56</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75">
-      <c r="A59" s="1" t="s">
+      <c r="E64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="7">
+      <c r="B65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="7">
         <v>50</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75">
-      <c r="A60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="7">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75">
-      <c r="A61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="7">
-        <v>51</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
-      <c r="A62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="7">
-        <v>46</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75">
-      <c r="A63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="7">
-        <v>50</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75">
-      <c r="A64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="7">
-        <v>48</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75">
-      <c r="A65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="7">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E65" s="4" t="s">
         <v>10</v>
       </c>
@@ -2177,7 +2084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -2185,10 +2092,10 @@
         <v>81</v>
       </c>
       <c r="C66" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>10</v>
@@ -2200,17 +2107,17 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15.75">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C67" s="7">
-        <v>56</v>
-      </c>
-      <c r="D67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -2223,17 +2130,17 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="15.75">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C68" s="7">
-        <v>50</v>
-      </c>
-      <c r="D68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -2246,76 +2153,4653 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="15.75">
-      <c r="A69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="7">
-        <v>62</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="15.75">
-      <c r="A70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="7">
-        <v>43</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="15.75">
-      <c r="A71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="7">
-        <v>4</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="8"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="8"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="8"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="8"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="8"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="8"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="8"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="8"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="8"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="8"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="8"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="8"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="8"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="8"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="8"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="8"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="8"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="8"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="8"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="8"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="8"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="8"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="8"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="8"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="8"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="8"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="8"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="8"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="8"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="8"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="8"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="8"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="8"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="8"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="8"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="8"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="8"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="8"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="8"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="8"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="8"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="8"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="8"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="8"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="8"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="8"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="8"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="8"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="8"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="8"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="8"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="8"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="10"/>
+    </row>
+    <row r="123" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="8"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="10"/>
+    </row>
+    <row r="124" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="8"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="10"/>
+    </row>
+    <row r="125" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="8"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="10"/>
+    </row>
+    <row r="126" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="8"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="8"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="8"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="8"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="8"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="8"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="10"/>
+    </row>
+    <row r="132" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="8"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="10"/>
+    </row>
+    <row r="133" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="8"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="8"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="8"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="10"/>
+    </row>
+    <row r="136" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="8"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="8"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="10"/>
+    </row>
+    <row r="138" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="8"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="10"/>
+    </row>
+    <row r="139" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="8"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="10"/>
+    </row>
+    <row r="140" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="8"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="10"/>
+    </row>
+    <row r="141" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="8"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="10"/>
+    </row>
+    <row r="142" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="8"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="10"/>
+    </row>
+    <row r="143" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="8"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="10"/>
+    </row>
+    <row r="144" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="8"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="10"/>
+    </row>
+    <row r="145" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="8"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="10"/>
+    </row>
+    <row r="146" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="8"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="10"/>
+    </row>
+    <row r="147" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="8"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="10"/>
+    </row>
+    <row r="148" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="8"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="10"/>
+    </row>
+    <row r="149" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="8"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="10"/>
+    </row>
+    <row r="150" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="8"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="10"/>
+    </row>
+    <row r="151" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="8"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="10"/>
+    </row>
+    <row r="152" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="8"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="10"/>
+    </row>
+    <row r="153" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="8"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="10"/>
+    </row>
+    <row r="154" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="8"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="10"/>
+    </row>
+    <row r="155" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="8"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="10"/>
+    </row>
+    <row r="156" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="8"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="10"/>
+    </row>
+    <row r="157" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="8"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="10"/>
+    </row>
+    <row r="158" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="8"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="10"/>
+    </row>
+    <row r="159" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="8"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="10"/>
+    </row>
+    <row r="160" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="8"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="10"/>
+    </row>
+    <row r="161" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="8"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="10"/>
+    </row>
+    <row r="162" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="8"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="10"/>
+    </row>
+    <row r="163" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="8"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="10"/>
+    </row>
+    <row r="164" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="8"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="10"/>
+    </row>
+    <row r="165" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="8"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="10"/>
+    </row>
+    <row r="166" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="8"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="10"/>
+    </row>
+    <row r="167" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="8"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="10"/>
+    </row>
+    <row r="168" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="8"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="10"/>
+    </row>
+    <row r="169" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="8"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="10"/>
+    </row>
+    <row r="170" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="8"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="10"/>
+    </row>
+    <row r="171" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="8"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="10"/>
+    </row>
+    <row r="172" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="8"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="10"/>
+    </row>
+    <row r="173" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="8"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="10"/>
+    </row>
+    <row r="174" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="8"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="10"/>
+    </row>
+    <row r="175" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="8"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="10"/>
+    </row>
+    <row r="176" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="8"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="10"/>
+    </row>
+    <row r="177" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="8"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="10"/>
+    </row>
+    <row r="178" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C178" s="8"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="10"/>
+    </row>
+    <row r="179" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C179" s="8"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="10"/>
+    </row>
+    <row r="180" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="8"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="10"/>
+    </row>
+    <row r="181" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="8"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="10"/>
+    </row>
+    <row r="182" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="8"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="10"/>
+    </row>
+    <row r="183" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="8"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="10"/>
+    </row>
+    <row r="184" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="8"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="10"/>
+    </row>
+    <row r="185" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="8"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="10"/>
+    </row>
+    <row r="186" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="8"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="10"/>
+    </row>
+    <row r="187" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="8"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="10"/>
+    </row>
+    <row r="188" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C188" s="8"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="10"/>
+    </row>
+    <row r="189" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C189" s="8"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="10"/>
+    </row>
+    <row r="190" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C190" s="8"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="10"/>
+    </row>
+    <row r="191" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C191" s="8"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="10"/>
+    </row>
+    <row r="192" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="8"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="10"/>
+    </row>
+    <row r="193" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="8"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="10"/>
+    </row>
+    <row r="194" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C194" s="8"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="10"/>
+    </row>
+    <row r="195" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C195" s="8"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="10"/>
+    </row>
+    <row r="196" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C196" s="8"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="10"/>
+    </row>
+    <row r="197" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="8"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="10"/>
+    </row>
+    <row r="198" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="8"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="10"/>
+    </row>
+    <row r="199" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="8"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="10"/>
+    </row>
+    <row r="200" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="8"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="10"/>
+    </row>
+    <row r="201" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C201" s="8"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="10"/>
+    </row>
+    <row r="202" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C202" s="8"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="10"/>
+    </row>
+    <row r="203" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C203" s="8"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="10"/>
+    </row>
+    <row r="204" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C204" s="8"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="10"/>
+    </row>
+    <row r="205" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C205" s="8"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="10"/>
+    </row>
+    <row r="206" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="8"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="10"/>
+    </row>
+    <row r="207" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C207" s="8"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="10"/>
+    </row>
+    <row r="208" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C208" s="8"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="10"/>
+    </row>
+    <row r="209" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C209" s="8"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="10"/>
+    </row>
+    <row r="210" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="8"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="10"/>
+    </row>
+    <row r="211" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="8"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="10"/>
+    </row>
+    <row r="212" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="8"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="10"/>
+    </row>
+    <row r="213" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="8"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="10"/>
+    </row>
+    <row r="214" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="8"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="10"/>
+    </row>
+    <row r="215" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="8"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="10"/>
+    </row>
+    <row r="216" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="8"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="10"/>
+    </row>
+    <row r="217" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C217" s="8"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="10"/>
+    </row>
+    <row r="218" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C218" s="8"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="10"/>
+    </row>
+    <row r="219" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C219" s="8"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="10"/>
+    </row>
+    <row r="220" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="8"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="10"/>
+    </row>
+    <row r="221" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="8"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="10"/>
+    </row>
+    <row r="222" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C222" s="8"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="10"/>
+    </row>
+    <row r="223" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C223" s="8"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="10"/>
+    </row>
+    <row r="224" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="8"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="10"/>
+    </row>
+    <row r="225" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C225" s="8"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="10"/>
+    </row>
+    <row r="226" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C226" s="8"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="10"/>
+    </row>
+    <row r="227" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C227" s="8"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="10"/>
+    </row>
+    <row r="228" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="8"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="10"/>
+    </row>
+    <row r="229" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C229" s="8"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="10"/>
+    </row>
+    <row r="230" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="8"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="10"/>
+    </row>
+    <row r="231" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C231" s="8"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="10"/>
+    </row>
+    <row r="232" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C232" s="8"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="10"/>
+    </row>
+    <row r="233" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="8"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="10"/>
+    </row>
+    <row r="234" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C234" s="8"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="10"/>
+    </row>
+    <row r="235" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C235" s="8"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="10"/>
+    </row>
+    <row r="236" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C236" s="8"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="10"/>
+    </row>
+    <row r="237" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C237" s="8"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="10"/>
+    </row>
+    <row r="238" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C238" s="8"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="10"/>
+    </row>
+    <row r="239" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C239" s="8"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="10"/>
+    </row>
+    <row r="240" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C240" s="8"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="10"/>
+    </row>
+    <row r="241" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C241" s="8"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="10"/>
+    </row>
+    <row r="242" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C242" s="8"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="10"/>
+    </row>
+    <row r="243" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C243" s="8"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="10"/>
+    </row>
+    <row r="244" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C244" s="8"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="10"/>
+    </row>
+    <row r="245" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C245" s="8"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="10"/>
+    </row>
+    <row r="246" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C246" s="8"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="10"/>
+    </row>
+    <row r="247" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C247" s="8"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="10"/>
+    </row>
+    <row r="248" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C248" s="8"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="10"/>
+    </row>
+    <row r="249" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C249" s="8"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="10"/>
+    </row>
+    <row r="250" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C250" s="8"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="10"/>
+    </row>
+    <row r="251" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C251" s="8"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="10"/>
+    </row>
+    <row r="252" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C252" s="8"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="10"/>
+    </row>
+    <row r="253" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C253" s="8"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="10"/>
+    </row>
+    <row r="254" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C254" s="8"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="10"/>
+    </row>
+    <row r="255" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C255" s="8"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="10"/>
+    </row>
+    <row r="256" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C256" s="8"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="10"/>
+    </row>
+    <row r="257" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C257" s="8"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="10"/>
+    </row>
+    <row r="258" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C258" s="8"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="10"/>
+    </row>
+    <row r="259" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C259" s="8"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="10"/>
+    </row>
+    <row r="260" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="8"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="10"/>
+    </row>
+    <row r="261" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="8"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="10"/>
+    </row>
+    <row r="262" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C262" s="8"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="10"/>
+    </row>
+    <row r="263" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C263" s="8"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="10"/>
+    </row>
+    <row r="264" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C264" s="8"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="10"/>
+    </row>
+    <row r="265" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C265" s="8"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="10"/>
+    </row>
+    <row r="266" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C266" s="8"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="10"/>
+    </row>
+    <row r="267" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C267" s="8"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="10"/>
+    </row>
+    <row r="268" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C268" s="8"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="10"/>
+    </row>
+    <row r="269" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C269" s="8"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="10"/>
+    </row>
+    <row r="270" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C270" s="8"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="10"/>
+    </row>
+    <row r="271" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C271" s="8"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="10"/>
+    </row>
+    <row r="272" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C272" s="8"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="10"/>
+    </row>
+    <row r="273" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C273" s="8"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="10"/>
+    </row>
+    <row r="274" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="8"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="10"/>
+    </row>
+    <row r="275" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C275" s="8"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="10"/>
+    </row>
+    <row r="276" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C276" s="8"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="10"/>
+    </row>
+    <row r="277" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C277" s="8"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="10"/>
+    </row>
+    <row r="278" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C278" s="8"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="10"/>
+    </row>
+    <row r="279" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C279" s="8"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="10"/>
+    </row>
+    <row r="280" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C280" s="8"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="10"/>
+    </row>
+    <row r="281" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C281" s="8"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="10"/>
+    </row>
+    <row r="282" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C282" s="8"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="10"/>
+    </row>
+    <row r="283" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="8"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="10"/>
+    </row>
+    <row r="284" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C284" s="8"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="10"/>
+    </row>
+    <row r="285" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C285" s="8"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="10"/>
+    </row>
+    <row r="286" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C286" s="8"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="10"/>
+    </row>
+    <row r="287" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C287" s="8"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="10"/>
+    </row>
+    <row r="288" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C288" s="8"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="10"/>
+    </row>
+    <row r="289" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C289" s="8"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="10"/>
+    </row>
+    <row r="290" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C290" s="8"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="10"/>
+    </row>
+    <row r="291" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C291" s="8"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="10"/>
+    </row>
+    <row r="292" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C292" s="8"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="10"/>
+    </row>
+    <row r="293" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C293" s="8"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="10"/>
+    </row>
+    <row r="294" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C294" s="8"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="10"/>
+    </row>
+    <row r="295" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C295" s="8"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="10"/>
+    </row>
+    <row r="296" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C296" s="8"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="10"/>
+    </row>
+    <row r="297" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C297" s="8"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="10"/>
+    </row>
+    <row r="298" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C298" s="8"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="10"/>
+    </row>
+    <row r="299" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="8"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="10"/>
+    </row>
+    <row r="300" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="8"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="10"/>
+    </row>
+    <row r="301" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="8"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="10"/>
+    </row>
+    <row r="302" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="8"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="10"/>
+    </row>
+    <row r="303" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="8"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="10"/>
+    </row>
+    <row r="304" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="8"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="10"/>
+    </row>
+    <row r="305" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="8"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="10"/>
+    </row>
+    <row r="306" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="8"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="10"/>
+    </row>
+    <row r="307" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C307" s="8"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="10"/>
+    </row>
+    <row r="308" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C308" s="8"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="10"/>
+    </row>
+    <row r="309" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C309" s="8"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="10"/>
+    </row>
+    <row r="310" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="8"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="10"/>
+    </row>
+    <row r="311" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C311" s="8"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="10"/>
+    </row>
+    <row r="312" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C312" s="8"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="10"/>
+    </row>
+    <row r="313" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C313" s="8"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="10"/>
+    </row>
+    <row r="314" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C314" s="8"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="10"/>
+    </row>
+    <row r="315" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C315" s="8"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="10"/>
+    </row>
+    <row r="316" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C316" s="8"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="10"/>
+    </row>
+    <row r="317" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C317" s="8"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="10"/>
+    </row>
+    <row r="318" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C318" s="8"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="10"/>
+    </row>
+    <row r="319" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C319" s="8"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="10"/>
+    </row>
+    <row r="320" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C320" s="8"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="10"/>
+    </row>
+    <row r="321" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C321" s="8"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="10"/>
+    </row>
+    <row r="322" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C322" s="8"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="10"/>
+    </row>
+    <row r="323" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C323" s="8"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="10"/>
+    </row>
+    <row r="324" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C324" s="8"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="10"/>
+    </row>
+    <row r="325" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C325" s="8"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="10"/>
+    </row>
+    <row r="326" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C326" s="8"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="10"/>
+    </row>
+    <row r="327" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C327" s="8"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="10"/>
+    </row>
+    <row r="328" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C328" s="8"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="10"/>
+    </row>
+    <row r="329" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C329" s="8"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="10"/>
+    </row>
+    <row r="330" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C330" s="8"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="10"/>
+    </row>
+    <row r="331" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C331" s="8"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="10"/>
+    </row>
+    <row r="332" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C332" s="8"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="10"/>
+    </row>
+    <row r="333" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C333" s="8"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="10"/>
+    </row>
+    <row r="334" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C334" s="8"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="10"/>
+    </row>
+    <row r="335" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C335" s="8"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="10"/>
+    </row>
+    <row r="336" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C336" s="8"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="10"/>
+    </row>
+    <row r="337" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C337" s="8"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="10"/>
+    </row>
+    <row r="338" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C338" s="8"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="10"/>
+    </row>
+    <row r="339" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C339" s="8"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="10"/>
+    </row>
+    <row r="340" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C340" s="8"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="10"/>
+    </row>
+    <row r="341" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C341" s="8"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="10"/>
+    </row>
+    <row r="342" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C342" s="8"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="10"/>
+    </row>
+    <row r="343" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C343" s="8"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="10"/>
+    </row>
+    <row r="344" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C344" s="8"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="10"/>
+    </row>
+    <row r="345" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C345" s="8"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="10"/>
+    </row>
+    <row r="346" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C346" s="8"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="10"/>
+    </row>
+    <row r="347" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C347" s="8"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="10"/>
+    </row>
+    <row r="348" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C348" s="8"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="10"/>
+    </row>
+    <row r="349" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C349" s="8"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="10"/>
+    </row>
+    <row r="350" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C350" s="8"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="10"/>
+    </row>
+    <row r="351" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C351" s="8"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="10"/>
+    </row>
+    <row r="352" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C352" s="8"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="10"/>
+    </row>
+    <row r="353" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C353" s="8"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="10"/>
+    </row>
+    <row r="354" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C354" s="8"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="10"/>
+    </row>
+    <row r="355" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C355" s="8"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="10"/>
+    </row>
+    <row r="356" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C356" s="8"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="10"/>
+    </row>
+    <row r="357" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C357" s="8"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="10"/>
+    </row>
+    <row r="358" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C358" s="8"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="10"/>
+    </row>
+    <row r="359" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C359" s="8"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="10"/>
+    </row>
+    <row r="360" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C360" s="8"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="10"/>
+    </row>
+    <row r="361" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C361" s="8"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="10"/>
+    </row>
+    <row r="362" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C362" s="8"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="10"/>
+    </row>
+    <row r="363" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C363" s="8"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="10"/>
+    </row>
+    <row r="364" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C364" s="8"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="10"/>
+    </row>
+    <row r="365" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C365" s="8"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="10"/>
+    </row>
+    <row r="366" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C366" s="8"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="10"/>
+    </row>
+    <row r="367" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C367" s="8"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="10"/>
+    </row>
+    <row r="368" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C368" s="8"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="10"/>
+    </row>
+    <row r="369" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C369" s="8"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="10"/>
+    </row>
+    <row r="370" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C370" s="8"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="10"/>
+    </row>
+    <row r="371" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C371" s="8"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="10"/>
+    </row>
+    <row r="372" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372" s="8"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="10"/>
+    </row>
+    <row r="373" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C373" s="8"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="10"/>
+    </row>
+    <row r="374" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C374" s="8"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="10"/>
+    </row>
+    <row r="375" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C375" s="8"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="10"/>
+    </row>
+    <row r="376" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C376" s="8"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="10"/>
+    </row>
+    <row r="377" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C377" s="8"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="10"/>
+    </row>
+    <row r="378" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C378" s="8"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="10"/>
+    </row>
+    <row r="379" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C379" s="8"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="10"/>
+    </row>
+    <row r="380" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C380" s="8"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="10"/>
+    </row>
+    <row r="381" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C381" s="8"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="10"/>
+    </row>
+    <row r="382" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C382" s="8"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="10"/>
+    </row>
+    <row r="383" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C383" s="8"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="10"/>
+    </row>
+    <row r="384" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C384" s="8"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="10"/>
+    </row>
+    <row r="385" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C385" s="8"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="10"/>
+    </row>
+    <row r="386" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C386" s="8"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="10"/>
+    </row>
+    <row r="387" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C387" s="8"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="10"/>
+    </row>
+    <row r="388" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C388" s="8"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="10"/>
+    </row>
+    <row r="389" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C389" s="8"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="10"/>
+    </row>
+    <row r="390" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C390" s="8"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="10"/>
+    </row>
+    <row r="391" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C391" s="8"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="10"/>
+    </row>
+    <row r="392" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C392" s="8"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="10"/>
+    </row>
+    <row r="393" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C393" s="8"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="10"/>
+    </row>
+    <row r="394" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C394" s="8"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="10"/>
+    </row>
+    <row r="395" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C395" s="8"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="10"/>
+    </row>
+    <row r="396" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C396" s="8"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="10"/>
+    </row>
+    <row r="397" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C397" s="8"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="10"/>
+    </row>
+    <row r="398" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C398" s="8"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="10"/>
+    </row>
+    <row r="399" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C399" s="8"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="10"/>
+    </row>
+    <row r="400" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C400" s="8"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="10"/>
+    </row>
+    <row r="401" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C401" s="8"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="10"/>
+    </row>
+    <row r="402" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C402" s="8"/>
+      <c r="E402" s="9"/>
+      <c r="F402" s="10"/>
+    </row>
+    <row r="403" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C403" s="8"/>
+      <c r="E403" s="9"/>
+      <c r="F403" s="10"/>
+    </row>
+    <row r="404" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C404" s="8"/>
+      <c r="E404" s="9"/>
+      <c r="F404" s="10"/>
+    </row>
+    <row r="405" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C405" s="8"/>
+      <c r="E405" s="9"/>
+      <c r="F405" s="10"/>
+    </row>
+    <row r="406" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C406" s="8"/>
+      <c r="E406" s="9"/>
+      <c r="F406" s="10"/>
+    </row>
+    <row r="407" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C407" s="8"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="10"/>
+    </row>
+    <row r="408" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C408" s="8"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="10"/>
+    </row>
+    <row r="409" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C409" s="8"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="10"/>
+    </row>
+    <row r="410" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C410" s="8"/>
+      <c r="E410" s="9"/>
+      <c r="F410" s="10"/>
+    </row>
+    <row r="411" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C411" s="8"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="10"/>
+    </row>
+    <row r="412" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C412" s="8"/>
+      <c r="E412" s="9"/>
+      <c r="F412" s="10"/>
+    </row>
+    <row r="413" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C413" s="8"/>
+      <c r="E413" s="9"/>
+      <c r="F413" s="10"/>
+    </row>
+    <row r="414" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C414" s="8"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="10"/>
+    </row>
+    <row r="415" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C415" s="8"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="10"/>
+    </row>
+    <row r="416" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C416" s="8"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="10"/>
+    </row>
+    <row r="417" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C417" s="8"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="10"/>
+    </row>
+    <row r="418" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C418" s="8"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="10"/>
+    </row>
+    <row r="419" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C419" s="8"/>
+      <c r="E419" s="9"/>
+      <c r="F419" s="10"/>
+    </row>
+    <row r="420" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C420" s="8"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="10"/>
+    </row>
+    <row r="421" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C421" s="8"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="10"/>
+    </row>
+    <row r="422" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C422" s="8"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="10"/>
+    </row>
+    <row r="423" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C423" s="8"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="10"/>
+    </row>
+    <row r="424" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C424" s="8"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="10"/>
+    </row>
+    <row r="425" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C425" s="8"/>
+      <c r="E425" s="9"/>
+      <c r="F425" s="10"/>
+    </row>
+    <row r="426" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C426" s="8"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="10"/>
+    </row>
+    <row r="427" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C427" s="8"/>
+      <c r="E427" s="9"/>
+      <c r="F427" s="10"/>
+    </row>
+    <row r="428" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C428" s="8"/>
+      <c r="E428" s="9"/>
+      <c r="F428" s="10"/>
+    </row>
+    <row r="429" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C429" s="8"/>
+      <c r="E429" s="9"/>
+      <c r="F429" s="10"/>
+    </row>
+    <row r="430" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C430" s="8"/>
+      <c r="E430" s="9"/>
+      <c r="F430" s="10"/>
+    </row>
+    <row r="431" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C431" s="8"/>
+      <c r="E431" s="9"/>
+      <c r="F431" s="10"/>
+    </row>
+    <row r="432" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C432" s="8"/>
+      <c r="E432" s="9"/>
+      <c r="F432" s="10"/>
+    </row>
+    <row r="433" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C433" s="8"/>
+      <c r="E433" s="9"/>
+      <c r="F433" s="10"/>
+    </row>
+    <row r="434" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C434" s="8"/>
+      <c r="E434" s="9"/>
+      <c r="F434" s="10"/>
+    </row>
+    <row r="435" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C435" s="8"/>
+      <c r="E435" s="9"/>
+      <c r="F435" s="10"/>
+    </row>
+    <row r="436" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C436" s="8"/>
+      <c r="E436" s="9"/>
+      <c r="F436" s="10"/>
+    </row>
+    <row r="437" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C437" s="8"/>
+      <c r="E437" s="9"/>
+      <c r="F437" s="10"/>
+    </row>
+    <row r="438" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C438" s="8"/>
+      <c r="E438" s="9"/>
+      <c r="F438" s="10"/>
+    </row>
+    <row r="439" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C439" s="8"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="10"/>
+    </row>
+    <row r="440" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C440" s="8"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="10"/>
+    </row>
+    <row r="441" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C441" s="8"/>
+      <c r="E441" s="9"/>
+      <c r="F441" s="10"/>
+    </row>
+    <row r="442" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C442" s="8"/>
+      <c r="E442" s="9"/>
+      <c r="F442" s="10"/>
+    </row>
+    <row r="443" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C443" s="8"/>
+      <c r="E443" s="9"/>
+      <c r="F443" s="10"/>
+    </row>
+    <row r="444" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C444" s="8"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="10"/>
+    </row>
+    <row r="445" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C445" s="8"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="10"/>
+    </row>
+    <row r="446" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C446" s="8"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="10"/>
+    </row>
+    <row r="447" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C447" s="8"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="10"/>
+    </row>
+    <row r="448" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C448" s="8"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="10"/>
+    </row>
+    <row r="449" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C449" s="8"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="10"/>
+    </row>
+    <row r="450" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C450" s="8"/>
+      <c r="E450" s="9"/>
+      <c r="F450" s="10"/>
+    </row>
+    <row r="451" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C451" s="8"/>
+      <c r="E451" s="9"/>
+      <c r="F451" s="10"/>
+    </row>
+    <row r="452" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C452" s="8"/>
+      <c r="E452" s="9"/>
+      <c r="F452" s="10"/>
+    </row>
+    <row r="453" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C453" s="8"/>
+      <c r="E453" s="9"/>
+      <c r="F453" s="10"/>
+    </row>
+    <row r="454" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C454" s="8"/>
+      <c r="E454" s="9"/>
+      <c r="F454" s="10"/>
+    </row>
+    <row r="455" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C455" s="8"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="10"/>
+    </row>
+    <row r="456" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C456" s="8"/>
+      <c r="E456" s="9"/>
+      <c r="F456" s="10"/>
+    </row>
+    <row r="457" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C457" s="8"/>
+      <c r="E457" s="9"/>
+      <c r="F457" s="10"/>
+    </row>
+    <row r="458" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C458" s="8"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="10"/>
+    </row>
+    <row r="459" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C459" s="8"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="10"/>
+    </row>
+    <row r="460" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C460" s="8"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="10"/>
+    </row>
+    <row r="461" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C461" s="8"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="10"/>
+    </row>
+    <row r="462" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C462" s="8"/>
+      <c r="E462" s="9"/>
+      <c r="F462" s="10"/>
+    </row>
+    <row r="463" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C463" s="8"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="10"/>
+    </row>
+    <row r="464" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C464" s="8"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="10"/>
+    </row>
+    <row r="465" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C465" s="8"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="10"/>
+    </row>
+    <row r="466" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C466" s="8"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="10"/>
+    </row>
+    <row r="467" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C467" s="8"/>
+      <c r="E467" s="9"/>
+      <c r="F467" s="10"/>
+    </row>
+    <row r="468" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C468" s="8"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="10"/>
+    </row>
+    <row r="469" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C469" s="8"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="10"/>
+    </row>
+    <row r="470" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C470" s="8"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="10"/>
+    </row>
+    <row r="471" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C471" s="8"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="10"/>
+    </row>
+    <row r="472" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C472" s="8"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="10"/>
+    </row>
+    <row r="473" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C473" s="8"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="10"/>
+    </row>
+    <row r="474" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C474" s="8"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="10"/>
+    </row>
+    <row r="475" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C475" s="8"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="10"/>
+    </row>
+    <row r="476" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C476" s="8"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="10"/>
+    </row>
+    <row r="477" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C477" s="8"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="10"/>
+    </row>
+    <row r="478" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C478" s="8"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="10"/>
+    </row>
+    <row r="479" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C479" s="8"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="10"/>
+    </row>
+    <row r="480" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C480" s="8"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="10"/>
+    </row>
+    <row r="481" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C481" s="8"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="10"/>
+    </row>
+    <row r="482" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C482" s="8"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="10"/>
+    </row>
+    <row r="483" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C483" s="8"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="10"/>
+    </row>
+    <row r="484" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C484" s="8"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="10"/>
+    </row>
+    <row r="485" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C485" s="8"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="10"/>
+    </row>
+    <row r="486" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C486" s="8"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="10"/>
+    </row>
+    <row r="487" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C487" s="8"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="10"/>
+    </row>
+    <row r="488" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C488" s="8"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="10"/>
+    </row>
+    <row r="489" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C489" s="8"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="10"/>
+    </row>
+    <row r="490" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C490" s="8"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="10"/>
+    </row>
+    <row r="491" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C491" s="8"/>
+      <c r="E491" s="9"/>
+      <c r="F491" s="10"/>
+    </row>
+    <row r="492" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C492" s="8"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="10"/>
+    </row>
+    <row r="493" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C493" s="8"/>
+      <c r="E493" s="9"/>
+      <c r="F493" s="10"/>
+    </row>
+    <row r="494" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C494" s="8"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="10"/>
+    </row>
+    <row r="495" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C495" s="8"/>
+      <c r="E495" s="9"/>
+      <c r="F495" s="10"/>
+    </row>
+    <row r="496" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C496" s="8"/>
+      <c r="E496" s="9"/>
+      <c r="F496" s="10"/>
+    </row>
+    <row r="497" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C497" s="8"/>
+      <c r="E497" s="9"/>
+      <c r="F497" s="10"/>
+    </row>
+    <row r="498" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C498" s="8"/>
+      <c r="E498" s="9"/>
+      <c r="F498" s="10"/>
+    </row>
+    <row r="499" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C499" s="8"/>
+      <c r="E499" s="9"/>
+      <c r="F499" s="10"/>
+    </row>
+    <row r="500" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C500" s="8"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="10"/>
+    </row>
+    <row r="501" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C501" s="8"/>
+      <c r="E501" s="9"/>
+      <c r="F501" s="10"/>
+    </row>
+    <row r="502" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C502" s="8"/>
+      <c r="E502" s="9"/>
+      <c r="F502" s="10"/>
+    </row>
+    <row r="503" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C503" s="8"/>
+      <c r="E503" s="9"/>
+      <c r="F503" s="10"/>
+    </row>
+    <row r="504" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C504" s="8"/>
+      <c r="E504" s="9"/>
+      <c r="F504" s="10"/>
+    </row>
+    <row r="505" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C505" s="8"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="10"/>
+    </row>
+    <row r="506" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C506" s="8"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="10"/>
+    </row>
+    <row r="507" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C507" s="8"/>
+      <c r="E507" s="9"/>
+      <c r="F507" s="10"/>
+    </row>
+    <row r="508" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C508" s="8"/>
+      <c r="E508" s="9"/>
+      <c r="F508" s="10"/>
+    </row>
+    <row r="509" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C509" s="8"/>
+      <c r="E509" s="9"/>
+      <c r="F509" s="10"/>
+    </row>
+    <row r="510" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C510" s="8"/>
+      <c r="E510" s="9"/>
+      <c r="F510" s="10"/>
+    </row>
+    <row r="511" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C511" s="8"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="10"/>
+    </row>
+    <row r="512" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C512" s="8"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="10"/>
+    </row>
+    <row r="513" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C513" s="8"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="10"/>
+    </row>
+    <row r="514" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C514" s="8"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="10"/>
+    </row>
+    <row r="515" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C515" s="8"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="10"/>
+    </row>
+    <row r="516" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C516" s="8"/>
+      <c r="E516" s="9"/>
+      <c r="F516" s="10"/>
+    </row>
+    <row r="517" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C517" s="8"/>
+      <c r="E517" s="9"/>
+      <c r="F517" s="10"/>
+    </row>
+    <row r="518" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C518" s="8"/>
+      <c r="E518" s="9"/>
+      <c r="F518" s="10"/>
+    </row>
+    <row r="519" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C519" s="8"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="10"/>
+    </row>
+    <row r="520" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C520" s="8"/>
+      <c r="E520" s="9"/>
+      <c r="F520" s="10"/>
+    </row>
+    <row r="521" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C521" s="8"/>
+      <c r="E521" s="9"/>
+      <c r="F521" s="10"/>
+    </row>
+    <row r="522" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C522" s="8"/>
+      <c r="E522" s="9"/>
+      <c r="F522" s="10"/>
+    </row>
+    <row r="523" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C523" s="8"/>
+      <c r="E523" s="9"/>
+      <c r="F523" s="10"/>
+    </row>
+    <row r="524" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C524" s="8"/>
+      <c r="E524" s="9"/>
+      <c r="F524" s="10"/>
+    </row>
+    <row r="525" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C525" s="8"/>
+      <c r="E525" s="9"/>
+      <c r="F525" s="10"/>
+    </row>
+    <row r="526" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C526" s="8"/>
+      <c r="E526" s="9"/>
+      <c r="F526" s="10"/>
+    </row>
+    <row r="527" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C527" s="8"/>
+      <c r="E527" s="9"/>
+      <c r="F527" s="10"/>
+    </row>
+    <row r="528" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C528" s="8"/>
+      <c r="E528" s="9"/>
+      <c r="F528" s="10"/>
+    </row>
+    <row r="529" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C529" s="8"/>
+      <c r="E529" s="9"/>
+      <c r="F529" s="10"/>
+    </row>
+    <row r="530" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C530" s="8"/>
+      <c r="E530" s="9"/>
+      <c r="F530" s="10"/>
+    </row>
+    <row r="531" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C531" s="8"/>
+      <c r="E531" s="9"/>
+      <c r="F531" s="10"/>
+    </row>
+    <row r="532" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C532" s="8"/>
+      <c r="E532" s="9"/>
+      <c r="F532" s="10"/>
+    </row>
+    <row r="533" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C533" s="8"/>
+      <c r="E533" s="9"/>
+      <c r="F533" s="10"/>
+    </row>
+    <row r="534" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C534" s="8"/>
+      <c r="E534" s="9"/>
+      <c r="F534" s="10"/>
+    </row>
+    <row r="535" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C535" s="8"/>
+      <c r="E535" s="9"/>
+      <c r="F535" s="10"/>
+    </row>
+    <row r="536" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C536" s="8"/>
+      <c r="E536" s="9"/>
+      <c r="F536" s="10"/>
+    </row>
+    <row r="537" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C537" s="8"/>
+      <c r="E537" s="9"/>
+      <c r="F537" s="10"/>
+    </row>
+    <row r="538" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C538" s="8"/>
+      <c r="E538" s="9"/>
+      <c r="F538" s="10"/>
+    </row>
+    <row r="539" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C539" s="8"/>
+      <c r="E539" s="9"/>
+      <c r="F539" s="10"/>
+    </row>
+    <row r="540" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C540" s="8"/>
+      <c r="E540" s="9"/>
+      <c r="F540" s="10"/>
+    </row>
+    <row r="541" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C541" s="8"/>
+      <c r="E541" s="9"/>
+      <c r="F541" s="10"/>
+    </row>
+    <row r="542" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C542" s="8"/>
+      <c r="E542" s="9"/>
+      <c r="F542" s="10"/>
+    </row>
+    <row r="543" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C543" s="8"/>
+      <c r="E543" s="9"/>
+      <c r="F543" s="10"/>
+    </row>
+    <row r="544" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C544" s="8"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="10"/>
+    </row>
+    <row r="545" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C545" s="8"/>
+      <c r="E545" s="9"/>
+      <c r="F545" s="10"/>
+    </row>
+    <row r="546" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C546" s="8"/>
+      <c r="E546" s="9"/>
+      <c r="F546" s="10"/>
+    </row>
+    <row r="547" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C547" s="8"/>
+      <c r="E547" s="9"/>
+      <c r="F547" s="10"/>
+    </row>
+    <row r="548" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C548" s="8"/>
+      <c r="E548" s="9"/>
+      <c r="F548" s="10"/>
+    </row>
+    <row r="549" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C549" s="8"/>
+      <c r="E549" s="9"/>
+      <c r="F549" s="10"/>
+    </row>
+    <row r="550" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C550" s="8"/>
+      <c r="E550" s="9"/>
+      <c r="F550" s="10"/>
+    </row>
+    <row r="551" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C551" s="8"/>
+      <c r="E551" s="9"/>
+      <c r="F551" s="10"/>
+    </row>
+    <row r="552" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C552" s="8"/>
+      <c r="E552" s="9"/>
+      <c r="F552" s="10"/>
+    </row>
+    <row r="553" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C553" s="8"/>
+      <c r="E553" s="9"/>
+      <c r="F553" s="10"/>
+    </row>
+    <row r="554" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C554" s="8"/>
+      <c r="E554" s="9"/>
+      <c r="F554" s="10"/>
+    </row>
+    <row r="555" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C555" s="8"/>
+      <c r="E555" s="9"/>
+      <c r="F555" s="10"/>
+    </row>
+    <row r="556" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C556" s="8"/>
+      <c r="E556" s="9"/>
+      <c r="F556" s="10"/>
+    </row>
+    <row r="557" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C557" s="8"/>
+      <c r="E557" s="9"/>
+      <c r="F557" s="10"/>
+    </row>
+    <row r="558" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C558" s="8"/>
+      <c r="E558" s="9"/>
+      <c r="F558" s="10"/>
+    </row>
+    <row r="559" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C559" s="8"/>
+      <c r="E559" s="9"/>
+      <c r="F559" s="10"/>
+    </row>
+    <row r="560" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C560" s="8"/>
+      <c r="E560" s="9"/>
+      <c r="F560" s="10"/>
+    </row>
+    <row r="561" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C561" s="8"/>
+      <c r="E561" s="9"/>
+      <c r="F561" s="10"/>
+    </row>
+    <row r="562" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C562" s="8"/>
+      <c r="E562" s="9"/>
+      <c r="F562" s="10"/>
+    </row>
+    <row r="563" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C563" s="8"/>
+      <c r="E563" s="9"/>
+      <c r="F563" s="10"/>
+    </row>
+    <row r="564" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C564" s="8"/>
+      <c r="E564" s="9"/>
+      <c r="F564" s="10"/>
+    </row>
+    <row r="565" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C565" s="8"/>
+      <c r="E565" s="9"/>
+      <c r="F565" s="10"/>
+    </row>
+    <row r="566" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C566" s="8"/>
+      <c r="E566" s="9"/>
+      <c r="F566" s="10"/>
+    </row>
+    <row r="567" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C567" s="8"/>
+      <c r="E567" s="9"/>
+      <c r="F567" s="10"/>
+    </row>
+    <row r="568" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C568" s="8"/>
+      <c r="E568" s="9"/>
+      <c r="F568" s="10"/>
+    </row>
+    <row r="569" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C569" s="8"/>
+      <c r="E569" s="9"/>
+      <c r="F569" s="10"/>
+    </row>
+    <row r="570" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C570" s="8"/>
+      <c r="E570" s="9"/>
+      <c r="F570" s="10"/>
+    </row>
+    <row r="571" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C571" s="8"/>
+      <c r="E571" s="9"/>
+      <c r="F571" s="10"/>
+    </row>
+    <row r="572" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C572" s="8"/>
+      <c r="E572" s="9"/>
+      <c r="F572" s="10"/>
+    </row>
+    <row r="573" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C573" s="8"/>
+      <c r="E573" s="9"/>
+      <c r="F573" s="10"/>
+    </row>
+    <row r="574" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C574" s="8"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="10"/>
+    </row>
+    <row r="575" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C575" s="8"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="10"/>
+    </row>
+    <row r="576" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C576" s="8"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="10"/>
+    </row>
+    <row r="577" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C577" s="8"/>
+      <c r="E577" s="9"/>
+      <c r="F577" s="10"/>
+    </row>
+    <row r="578" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C578" s="8"/>
+      <c r="E578" s="9"/>
+      <c r="F578" s="10"/>
+    </row>
+    <row r="579" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C579" s="8"/>
+      <c r="E579" s="9"/>
+      <c r="F579" s="10"/>
+    </row>
+    <row r="580" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C580" s="8"/>
+      <c r="E580" s="9"/>
+      <c r="F580" s="10"/>
+    </row>
+    <row r="581" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C581" s="8"/>
+      <c r="E581" s="9"/>
+      <c r="F581" s="10"/>
+    </row>
+    <row r="582" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C582" s="8"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="10"/>
+    </row>
+    <row r="583" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C583" s="8"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="10"/>
+    </row>
+    <row r="584" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C584" s="8"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="10"/>
+    </row>
+    <row r="585" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C585" s="8"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="10"/>
+    </row>
+    <row r="586" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C586" s="8"/>
+      <c r="E586" s="9"/>
+      <c r="F586" s="10"/>
+    </row>
+    <row r="587" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C587" s="8"/>
+      <c r="E587" s="9"/>
+      <c r="F587" s="10"/>
+    </row>
+    <row r="588" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C588" s="8"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="10"/>
+    </row>
+    <row r="589" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C589" s="8"/>
+      <c r="E589" s="9"/>
+      <c r="F589" s="10"/>
+    </row>
+    <row r="590" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C590" s="8"/>
+      <c r="E590" s="9"/>
+      <c r="F590" s="10"/>
+    </row>
+    <row r="591" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C591" s="8"/>
+      <c r="E591" s="9"/>
+      <c r="F591" s="10"/>
+    </row>
+    <row r="592" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C592" s="8"/>
+      <c r="E592" s="9"/>
+      <c r="F592" s="10"/>
+    </row>
+    <row r="593" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C593" s="8"/>
+      <c r="E593" s="9"/>
+      <c r="F593" s="10"/>
+    </row>
+    <row r="594" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C594" s="8"/>
+      <c r="E594" s="9"/>
+      <c r="F594" s="10"/>
+    </row>
+    <row r="595" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C595" s="8"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="10"/>
+    </row>
+    <row r="596" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C596" s="8"/>
+      <c r="E596" s="9"/>
+      <c r="F596" s="10"/>
+    </row>
+    <row r="597" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C597" s="8"/>
+      <c r="E597" s="9"/>
+      <c r="F597" s="10"/>
+    </row>
+    <row r="598" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C598" s="8"/>
+      <c r="E598" s="9"/>
+      <c r="F598" s="10"/>
+    </row>
+    <row r="599" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C599" s="8"/>
+      <c r="E599" s="9"/>
+      <c r="F599" s="10"/>
+    </row>
+    <row r="600" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C600" s="8"/>
+      <c r="E600" s="9"/>
+      <c r="F600" s="10"/>
+    </row>
+    <row r="601" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C601" s="8"/>
+      <c r="E601" s="9"/>
+      <c r="F601" s="10"/>
+    </row>
+    <row r="602" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C602" s="8"/>
+      <c r="E602" s="9"/>
+      <c r="F602" s="10"/>
+    </row>
+    <row r="603" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C603" s="8"/>
+      <c r="E603" s="9"/>
+      <c r="F603" s="10"/>
+    </row>
+    <row r="604" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C604" s="8"/>
+      <c r="E604" s="9"/>
+      <c r="F604" s="10"/>
+    </row>
+    <row r="605" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C605" s="8"/>
+      <c r="E605" s="9"/>
+      <c r="F605" s="10"/>
+    </row>
+    <row r="606" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C606" s="8"/>
+      <c r="E606" s="9"/>
+      <c r="F606" s="10"/>
+    </row>
+    <row r="607" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C607" s="8"/>
+      <c r="E607" s="9"/>
+      <c r="F607" s="10"/>
+    </row>
+    <row r="608" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C608" s="8"/>
+      <c r="E608" s="9"/>
+      <c r="F608" s="10"/>
+    </row>
+    <row r="609" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C609" s="8"/>
+      <c r="E609" s="9"/>
+      <c r="F609" s="10"/>
+    </row>
+    <row r="610" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C610" s="8"/>
+      <c r="E610" s="9"/>
+      <c r="F610" s="10"/>
+    </row>
+    <row r="611" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C611" s="8"/>
+      <c r="E611" s="9"/>
+      <c r="F611" s="10"/>
+    </row>
+    <row r="612" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C612" s="8"/>
+      <c r="E612" s="9"/>
+      <c r="F612" s="10"/>
+    </row>
+    <row r="613" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C613" s="8"/>
+      <c r="E613" s="9"/>
+      <c r="F613" s="10"/>
+    </row>
+    <row r="614" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C614" s="8"/>
+      <c r="E614" s="9"/>
+      <c r="F614" s="10"/>
+    </row>
+    <row r="615" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C615" s="8"/>
+      <c r="E615" s="9"/>
+      <c r="F615" s="10"/>
+    </row>
+    <row r="616" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C616" s="8"/>
+      <c r="E616" s="9"/>
+      <c r="F616" s="10"/>
+    </row>
+    <row r="617" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C617" s="8"/>
+      <c r="E617" s="9"/>
+      <c r="F617" s="10"/>
+    </row>
+    <row r="618" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C618" s="8"/>
+      <c r="E618" s="9"/>
+      <c r="F618" s="10"/>
+    </row>
+    <row r="619" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C619" s="8"/>
+      <c r="E619" s="9"/>
+      <c r="F619" s="10"/>
+    </row>
+    <row r="620" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C620" s="8"/>
+      <c r="E620" s="9"/>
+      <c r="F620" s="10"/>
+    </row>
+    <row r="621" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C621" s="8"/>
+      <c r="E621" s="9"/>
+      <c r="F621" s="10"/>
+    </row>
+    <row r="622" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C622" s="8"/>
+      <c r="E622" s="9"/>
+      <c r="F622" s="10"/>
+    </row>
+    <row r="623" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C623" s="8"/>
+      <c r="E623" s="9"/>
+      <c r="F623" s="10"/>
+    </row>
+    <row r="624" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C624" s="8"/>
+      <c r="E624" s="9"/>
+      <c r="F624" s="10"/>
+    </row>
+    <row r="625" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C625" s="8"/>
+      <c r="E625" s="9"/>
+      <c r="F625" s="10"/>
+    </row>
+    <row r="626" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C626" s="8"/>
+      <c r="E626" s="9"/>
+      <c r="F626" s="10"/>
+    </row>
+    <row r="627" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C627" s="8"/>
+      <c r="E627" s="9"/>
+      <c r="F627" s="10"/>
+    </row>
+    <row r="628" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C628" s="8"/>
+      <c r="E628" s="9"/>
+      <c r="F628" s="10"/>
+    </row>
+    <row r="629" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C629" s="8"/>
+      <c r="E629" s="9"/>
+      <c r="F629" s="10"/>
+    </row>
+    <row r="630" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C630" s="8"/>
+      <c r="E630" s="9"/>
+      <c r="F630" s="10"/>
+    </row>
+    <row r="631" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C631" s="8"/>
+      <c r="E631" s="9"/>
+      <c r="F631" s="10"/>
+    </row>
+    <row r="632" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C632" s="8"/>
+      <c r="E632" s="9"/>
+      <c r="F632" s="10"/>
+    </row>
+    <row r="633" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C633" s="8"/>
+      <c r="E633" s="9"/>
+      <c r="F633" s="10"/>
+    </row>
+    <row r="634" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C634" s="8"/>
+      <c r="E634" s="9"/>
+      <c r="F634" s="10"/>
+    </row>
+    <row r="635" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C635" s="8"/>
+      <c r="E635" s="9"/>
+      <c r="F635" s="10"/>
+    </row>
+    <row r="636" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C636" s="8"/>
+      <c r="E636" s="9"/>
+      <c r="F636" s="10"/>
+    </row>
+    <row r="637" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C637" s="8"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="10"/>
+    </row>
+    <row r="638" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C638" s="8"/>
+      <c r="E638" s="9"/>
+      <c r="F638" s="10"/>
+    </row>
+    <row r="639" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C639" s="8"/>
+      <c r="E639" s="9"/>
+      <c r="F639" s="10"/>
+    </row>
+    <row r="640" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C640" s="8"/>
+      <c r="E640" s="9"/>
+      <c r="F640" s="10"/>
+    </row>
+    <row r="641" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C641" s="8"/>
+      <c r="E641" s="9"/>
+      <c r="F641" s="10"/>
+    </row>
+    <row r="642" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C642" s="8"/>
+      <c r="E642" s="9"/>
+      <c r="F642" s="10"/>
+    </row>
+    <row r="643" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C643" s="8"/>
+      <c r="E643" s="9"/>
+      <c r="F643" s="10"/>
+    </row>
+    <row r="644" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C644" s="8"/>
+      <c r="E644" s="9"/>
+      <c r="F644" s="10"/>
+    </row>
+    <row r="645" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C645" s="8"/>
+      <c r="E645" s="9"/>
+      <c r="F645" s="10"/>
+    </row>
+    <row r="646" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C646" s="8"/>
+      <c r="E646" s="9"/>
+      <c r="F646" s="10"/>
+    </row>
+    <row r="647" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C647" s="8"/>
+      <c r="E647" s="9"/>
+      <c r="F647" s="10"/>
+    </row>
+    <row r="648" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C648" s="8"/>
+      <c r="E648" s="9"/>
+      <c r="F648" s="10"/>
+    </row>
+    <row r="649" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C649" s="8"/>
+      <c r="E649" s="9"/>
+      <c r="F649" s="10"/>
+    </row>
+    <row r="650" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C650" s="8"/>
+      <c r="E650" s="9"/>
+      <c r="F650" s="10"/>
+    </row>
+    <row r="651" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C651" s="8"/>
+      <c r="E651" s="9"/>
+      <c r="F651" s="10"/>
+    </row>
+    <row r="652" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C652" s="8"/>
+      <c r="E652" s="9"/>
+      <c r="F652" s="10"/>
+    </row>
+    <row r="653" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C653" s="8"/>
+      <c r="E653" s="9"/>
+      <c r="F653" s="10"/>
+    </row>
+    <row r="654" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C654" s="8"/>
+      <c r="E654" s="9"/>
+      <c r="F654" s="10"/>
+    </row>
+    <row r="655" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C655" s="8"/>
+      <c r="E655" s="9"/>
+      <c r="F655" s="10"/>
+    </row>
+    <row r="656" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C656" s="8"/>
+      <c r="E656" s="9"/>
+      <c r="F656" s="10"/>
+    </row>
+    <row r="657" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C657" s="8"/>
+      <c r="E657" s="9"/>
+      <c r="F657" s="10"/>
+    </row>
+    <row r="658" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C658" s="8"/>
+      <c r="E658" s="9"/>
+      <c r="F658" s="10"/>
+    </row>
+    <row r="659" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C659" s="8"/>
+      <c r="E659" s="9"/>
+      <c r="F659" s="10"/>
+    </row>
+    <row r="660" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C660" s="8"/>
+      <c r="E660" s="9"/>
+      <c r="F660" s="10"/>
+    </row>
+    <row r="661" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C661" s="8"/>
+      <c r="E661" s="9"/>
+      <c r="F661" s="10"/>
+    </row>
+    <row r="662" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C662" s="8"/>
+      <c r="E662" s="9"/>
+      <c r="F662" s="10"/>
+    </row>
+    <row r="663" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C663" s="8"/>
+      <c r="E663" s="9"/>
+      <c r="F663" s="10"/>
+    </row>
+    <row r="664" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C664" s="8"/>
+      <c r="E664" s="9"/>
+      <c r="F664" s="10"/>
+    </row>
+    <row r="665" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C665" s="8"/>
+      <c r="E665" s="9"/>
+      <c r="F665" s="10"/>
+    </row>
+    <row r="666" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C666" s="8"/>
+      <c r="E666" s="9"/>
+      <c r="F666" s="10"/>
+    </row>
+    <row r="667" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C667" s="8"/>
+      <c r="E667" s="9"/>
+      <c r="F667" s="10"/>
+    </row>
+    <row r="668" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C668" s="8"/>
+      <c r="E668" s="9"/>
+      <c r="F668" s="10"/>
+    </row>
+    <row r="669" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C669" s="8"/>
+      <c r="E669" s="9"/>
+      <c r="F669" s="10"/>
+    </row>
+    <row r="670" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C670" s="8"/>
+      <c r="E670" s="9"/>
+      <c r="F670" s="10"/>
+    </row>
+    <row r="671" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C671" s="8"/>
+      <c r="E671" s="9"/>
+      <c r="F671" s="10"/>
+    </row>
+    <row r="672" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C672" s="8"/>
+      <c r="E672" s="9"/>
+      <c r="F672" s="10"/>
+    </row>
+    <row r="673" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C673" s="8"/>
+      <c r="E673" s="9"/>
+      <c r="F673" s="10"/>
+    </row>
+    <row r="674" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C674" s="8"/>
+      <c r="E674" s="9"/>
+      <c r="F674" s="10"/>
+    </row>
+    <row r="675" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C675" s="8"/>
+      <c r="E675" s="9"/>
+      <c r="F675" s="10"/>
+    </row>
+    <row r="676" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C676" s="8"/>
+      <c r="E676" s="9"/>
+      <c r="F676" s="10"/>
+    </row>
+    <row r="677" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C677" s="8"/>
+      <c r="E677" s="9"/>
+      <c r="F677" s="10"/>
+    </row>
+    <row r="678" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C678" s="8"/>
+      <c r="E678" s="9"/>
+      <c r="F678" s="10"/>
+    </row>
+    <row r="679" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C679" s="8"/>
+      <c r="E679" s="9"/>
+      <c r="F679" s="10"/>
+    </row>
+    <row r="680" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C680" s="8"/>
+      <c r="E680" s="9"/>
+      <c r="F680" s="10"/>
+    </row>
+    <row r="681" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C681" s="8"/>
+      <c r="E681" s="9"/>
+      <c r="F681" s="10"/>
+    </row>
+    <row r="682" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C682" s="8"/>
+      <c r="E682" s="9"/>
+      <c r="F682" s="10"/>
+    </row>
+    <row r="683" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C683" s="8"/>
+      <c r="E683" s="9"/>
+      <c r="F683" s="10"/>
+    </row>
+    <row r="684" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C684" s="8"/>
+      <c r="E684" s="9"/>
+      <c r="F684" s="10"/>
+    </row>
+    <row r="685" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C685" s="8"/>
+      <c r="E685" s="9"/>
+      <c r="F685" s="10"/>
+    </row>
+    <row r="686" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C686" s="8"/>
+      <c r="E686" s="9"/>
+      <c r="F686" s="10"/>
+    </row>
+    <row r="687" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C687" s="8"/>
+      <c r="E687" s="9"/>
+      <c r="F687" s="10"/>
+    </row>
+    <row r="688" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C688" s="8"/>
+      <c r="E688" s="9"/>
+      <c r="F688" s="10"/>
+    </row>
+    <row r="689" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C689" s="8"/>
+      <c r="E689" s="9"/>
+      <c r="F689" s="10"/>
+    </row>
+    <row r="690" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C690" s="8"/>
+      <c r="E690" s="9"/>
+      <c r="F690" s="10"/>
+    </row>
+    <row r="691" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C691" s="8"/>
+      <c r="E691" s="9"/>
+      <c r="F691" s="10"/>
+    </row>
+    <row r="692" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C692" s="8"/>
+      <c r="E692" s="9"/>
+      <c r="F692" s="10"/>
+    </row>
+    <row r="693" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C693" s="8"/>
+      <c r="E693" s="9"/>
+      <c r="F693" s="10"/>
+    </row>
+    <row r="694" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C694" s="8"/>
+      <c r="E694" s="9"/>
+      <c r="F694" s="10"/>
+    </row>
+    <row r="695" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C695" s="8"/>
+      <c r="E695" s="9"/>
+      <c r="F695" s="10"/>
+    </row>
+    <row r="696" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C696" s="8"/>
+      <c r="E696" s="9"/>
+      <c r="F696" s="10"/>
+    </row>
+    <row r="697" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C697" s="8"/>
+      <c r="E697" s="9"/>
+      <c r="F697" s="10"/>
+    </row>
+    <row r="698" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C698" s="8"/>
+      <c r="E698" s="9"/>
+      <c r="F698" s="10"/>
+    </row>
+    <row r="699" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C699" s="8"/>
+      <c r="E699" s="9"/>
+      <c r="F699" s="10"/>
+    </row>
+    <row r="700" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C700" s="8"/>
+      <c r="E700" s="9"/>
+      <c r="F700" s="10"/>
+    </row>
+    <row r="701" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C701" s="8"/>
+      <c r="E701" s="9"/>
+      <c r="F701" s="10"/>
+    </row>
+    <row r="702" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C702" s="8"/>
+      <c r="E702" s="9"/>
+      <c r="F702" s="10"/>
+    </row>
+    <row r="703" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C703" s="8"/>
+      <c r="E703" s="9"/>
+      <c r="F703" s="10"/>
+    </row>
+    <row r="704" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C704" s="8"/>
+      <c r="E704" s="9"/>
+      <c r="F704" s="10"/>
+    </row>
+    <row r="705" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C705" s="8"/>
+      <c r="E705" s="9"/>
+      <c r="F705" s="10"/>
+    </row>
+    <row r="706" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C706" s="8"/>
+      <c r="E706" s="9"/>
+      <c r="F706" s="10"/>
+    </row>
+    <row r="707" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C707" s="8"/>
+      <c r="E707" s="9"/>
+      <c r="F707" s="10"/>
+    </row>
+    <row r="708" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C708" s="8"/>
+      <c r="E708" s="9"/>
+      <c r="F708" s="10"/>
+    </row>
+    <row r="709" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C709" s="8"/>
+      <c r="E709" s="9"/>
+      <c r="F709" s="10"/>
+    </row>
+    <row r="710" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C710" s="8"/>
+      <c r="E710" s="9"/>
+      <c r="F710" s="10"/>
+    </row>
+    <row r="711" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C711" s="8"/>
+      <c r="E711" s="9"/>
+      <c r="F711" s="10"/>
+    </row>
+    <row r="712" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C712" s="8"/>
+      <c r="E712" s="9"/>
+      <c r="F712" s="10"/>
+    </row>
+    <row r="713" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C713" s="8"/>
+      <c r="E713" s="9"/>
+      <c r="F713" s="10"/>
+    </row>
+    <row r="714" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C714" s="8"/>
+      <c r="E714" s="9"/>
+      <c r="F714" s="10"/>
+    </row>
+    <row r="715" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C715" s="8"/>
+      <c r="E715" s="9"/>
+      <c r="F715" s="10"/>
+    </row>
+    <row r="716" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C716" s="8"/>
+      <c r="E716" s="9"/>
+      <c r="F716" s="10"/>
+    </row>
+    <row r="717" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C717" s="8"/>
+      <c r="E717" s="9"/>
+      <c r="F717" s="10"/>
+    </row>
+    <row r="718" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C718" s="8"/>
+      <c r="E718" s="9"/>
+      <c r="F718" s="10"/>
+    </row>
+    <row r="719" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C719" s="8"/>
+      <c r="E719" s="9"/>
+      <c r="F719" s="10"/>
+    </row>
+    <row r="720" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C720" s="8"/>
+      <c r="E720" s="9"/>
+      <c r="F720" s="10"/>
+    </row>
+    <row r="721" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C721" s="8"/>
+      <c r="E721" s="9"/>
+      <c r="F721" s="10"/>
+    </row>
+    <row r="722" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C722" s="8"/>
+      <c r="E722" s="9"/>
+      <c r="F722" s="10"/>
+    </row>
+    <row r="723" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C723" s="8"/>
+      <c r="E723" s="9"/>
+      <c r="F723" s="10"/>
+    </row>
+    <row r="724" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C724" s="8"/>
+      <c r="E724" s="9"/>
+      <c r="F724" s="10"/>
+    </row>
+    <row r="725" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C725" s="8"/>
+      <c r="E725" s="9"/>
+      <c r="F725" s="10"/>
+    </row>
+    <row r="726" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C726" s="8"/>
+      <c r="E726" s="9"/>
+      <c r="F726" s="10"/>
+    </row>
+    <row r="727" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C727" s="8"/>
+      <c r="E727" s="9"/>
+      <c r="F727" s="10"/>
+    </row>
+    <row r="728" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C728" s="8"/>
+      <c r="E728" s="9"/>
+      <c r="F728" s="10"/>
+    </row>
+    <row r="729" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C729" s="8"/>
+      <c r="E729" s="9"/>
+      <c r="F729" s="10"/>
+    </row>
+    <row r="730" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C730" s="8"/>
+      <c r="E730" s="9"/>
+      <c r="F730" s="10"/>
+    </row>
+    <row r="731" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C731" s="8"/>
+      <c r="E731" s="9"/>
+      <c r="F731" s="10"/>
+    </row>
+    <row r="732" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C732" s="8"/>
+      <c r="E732" s="9"/>
+      <c r="F732" s="10"/>
+    </row>
+    <row r="733" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C733" s="8"/>
+      <c r="E733" s="9"/>
+      <c r="F733" s="10"/>
+    </row>
+    <row r="734" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C734" s="8"/>
+      <c r="E734" s="9"/>
+      <c r="F734" s="10"/>
+    </row>
+    <row r="735" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C735" s="8"/>
+      <c r="E735" s="9"/>
+      <c r="F735" s="10"/>
+    </row>
+    <row r="736" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C736" s="8"/>
+      <c r="E736" s="9"/>
+      <c r="F736" s="10"/>
+    </row>
+    <row r="737" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C737" s="8"/>
+      <c r="E737" s="9"/>
+      <c r="F737" s="10"/>
+    </row>
+    <row r="738" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C738" s="8"/>
+      <c r="E738" s="9"/>
+      <c r="F738" s="10"/>
+    </row>
+    <row r="739" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C739" s="8"/>
+      <c r="E739" s="9"/>
+      <c r="F739" s="10"/>
+    </row>
+    <row r="740" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C740" s="8"/>
+      <c r="E740" s="9"/>
+      <c r="F740" s="10"/>
+    </row>
+    <row r="741" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C741" s="8"/>
+      <c r="E741" s="9"/>
+      <c r="F741" s="10"/>
+    </row>
+    <row r="742" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C742" s="8"/>
+      <c r="E742" s="9"/>
+      <c r="F742" s="10"/>
+    </row>
+    <row r="743" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C743" s="8"/>
+      <c r="E743" s="9"/>
+      <c r="F743" s="10"/>
+    </row>
+    <row r="744" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C744" s="8"/>
+      <c r="E744" s="9"/>
+      <c r="F744" s="10"/>
+    </row>
+    <row r="745" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C745" s="8"/>
+      <c r="E745" s="9"/>
+      <c r="F745" s="10"/>
+    </row>
+    <row r="746" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C746" s="8"/>
+      <c r="E746" s="9"/>
+      <c r="F746" s="10"/>
+    </row>
+    <row r="747" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C747" s="8"/>
+      <c r="E747" s="9"/>
+      <c r="F747" s="10"/>
+    </row>
+    <row r="748" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C748" s="8"/>
+      <c r="E748" s="9"/>
+      <c r="F748" s="10"/>
+    </row>
+    <row r="749" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C749" s="8"/>
+      <c r="E749" s="9"/>
+      <c r="F749" s="10"/>
+    </row>
+    <row r="750" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C750" s="8"/>
+      <c r="E750" s="9"/>
+      <c r="F750" s="10"/>
+    </row>
+    <row r="751" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C751" s="8"/>
+      <c r="E751" s="9"/>
+      <c r="F751" s="10"/>
+    </row>
+    <row r="752" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C752" s="8"/>
+      <c r="E752" s="9"/>
+      <c r="F752" s="10"/>
+    </row>
+    <row r="753" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C753" s="8"/>
+      <c r="E753" s="9"/>
+      <c r="F753" s="10"/>
+    </row>
+    <row r="754" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C754" s="8"/>
+      <c r="E754" s="9"/>
+      <c r="F754" s="10"/>
+    </row>
+    <row r="755" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C755" s="8"/>
+      <c r="E755" s="9"/>
+      <c r="F755" s="10"/>
+    </row>
+    <row r="756" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C756" s="8"/>
+      <c r="E756" s="9"/>
+      <c r="F756" s="10"/>
+    </row>
+    <row r="757" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C757" s="8"/>
+      <c r="E757" s="9"/>
+      <c r="F757" s="10"/>
+    </row>
+    <row r="758" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C758" s="8"/>
+      <c r="E758" s="9"/>
+      <c r="F758" s="10"/>
+    </row>
+    <row r="759" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C759" s="8"/>
+      <c r="E759" s="9"/>
+      <c r="F759" s="10"/>
+    </row>
+    <row r="760" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C760" s="8"/>
+      <c r="E760" s="9"/>
+      <c r="F760" s="10"/>
+    </row>
+    <row r="761" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C761" s="8"/>
+      <c r="E761" s="9"/>
+      <c r="F761" s="10"/>
+    </row>
+    <row r="762" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C762" s="8"/>
+      <c r="E762" s="9"/>
+      <c r="F762" s="10"/>
+    </row>
+    <row r="763" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C763" s="8"/>
+      <c r="E763" s="9"/>
+      <c r="F763" s="10"/>
+    </row>
+    <row r="764" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C764" s="8"/>
+      <c r="E764" s="9"/>
+      <c r="F764" s="10"/>
+    </row>
+    <row r="765" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C765" s="8"/>
+      <c r="E765" s="9"/>
+      <c r="F765" s="10"/>
+    </row>
+    <row r="766" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C766" s="8"/>
+      <c r="E766" s="9"/>
+      <c r="F766" s="10"/>
+    </row>
+    <row r="767" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C767" s="8"/>
+      <c r="E767" s="9"/>
+      <c r="F767" s="10"/>
+    </row>
+    <row r="768" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C768" s="8"/>
+      <c r="E768" s="9"/>
+      <c r="F768" s="10"/>
+    </row>
+    <row r="769" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C769" s="8"/>
+      <c r="E769" s="9"/>
+      <c r="F769" s="10"/>
+    </row>
+    <row r="770" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C770" s="8"/>
+      <c r="E770" s="9"/>
+      <c r="F770" s="10"/>
+    </row>
+    <row r="771" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C771" s="8"/>
+      <c r="E771" s="9"/>
+      <c r="F771" s="10"/>
+    </row>
+    <row r="772" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C772" s="8"/>
+      <c r="E772" s="9"/>
+      <c r="F772" s="10"/>
+    </row>
+    <row r="773" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C773" s="8"/>
+      <c r="E773" s="9"/>
+      <c r="F773" s="10"/>
+    </row>
+    <row r="774" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C774" s="8"/>
+      <c r="E774" s="9"/>
+      <c r="F774" s="10"/>
+    </row>
+    <row r="775" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C775" s="8"/>
+      <c r="E775" s="9"/>
+      <c r="F775" s="10"/>
+    </row>
+    <row r="776" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C776" s="8"/>
+      <c r="E776" s="9"/>
+      <c r="F776" s="10"/>
+    </row>
+    <row r="777" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C777" s="8"/>
+      <c r="E777" s="9"/>
+      <c r="F777" s="10"/>
+    </row>
+    <row r="778" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C778" s="8"/>
+      <c r="E778" s="9"/>
+      <c r="F778" s="10"/>
+    </row>
+    <row r="779" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C779" s="8"/>
+      <c r="E779" s="9"/>
+      <c r="F779" s="10"/>
+    </row>
+    <row r="780" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C780" s="8"/>
+      <c r="E780" s="9"/>
+      <c r="F780" s="10"/>
+    </row>
+    <row r="781" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C781" s="8"/>
+      <c r="E781" s="9"/>
+      <c r="F781" s="10"/>
+    </row>
+    <row r="782" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C782" s="8"/>
+      <c r="E782" s="9"/>
+      <c r="F782" s="10"/>
+    </row>
+    <row r="783" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C783" s="8"/>
+      <c r="E783" s="9"/>
+      <c r="F783" s="10"/>
+    </row>
+    <row r="784" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C784" s="8"/>
+      <c r="E784" s="9"/>
+      <c r="F784" s="10"/>
+    </row>
+    <row r="785" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C785" s="8"/>
+      <c r="E785" s="9"/>
+      <c r="F785" s="10"/>
+    </row>
+    <row r="786" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C786" s="8"/>
+      <c r="E786" s="9"/>
+      <c r="F786" s="10"/>
+    </row>
+    <row r="787" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C787" s="8"/>
+      <c r="E787" s="9"/>
+      <c r="F787" s="10"/>
+    </row>
+    <row r="788" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C788" s="8"/>
+      <c r="E788" s="9"/>
+      <c r="F788" s="10"/>
+    </row>
+    <row r="789" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C789" s="8"/>
+      <c r="E789" s="9"/>
+      <c r="F789" s="10"/>
+    </row>
+    <row r="790" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C790" s="8"/>
+      <c r="E790" s="9"/>
+      <c r="F790" s="10"/>
+    </row>
+    <row r="791" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C791" s="8"/>
+      <c r="E791" s="9"/>
+      <c r="F791" s="10"/>
+    </row>
+    <row r="792" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C792" s="8"/>
+      <c r="E792" s="9"/>
+      <c r="F792" s="10"/>
+    </row>
+    <row r="793" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C793" s="8"/>
+      <c r="E793" s="9"/>
+      <c r="F793" s="10"/>
+    </row>
+    <row r="794" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C794" s="8"/>
+      <c r="E794" s="9"/>
+      <c r="F794" s="10"/>
+    </row>
+    <row r="795" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C795" s="8"/>
+      <c r="E795" s="9"/>
+      <c r="F795" s="10"/>
+    </row>
+    <row r="796" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C796" s="8"/>
+      <c r="E796" s="9"/>
+      <c r="F796" s="10"/>
+    </row>
+    <row r="797" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C797" s="8"/>
+      <c r="E797" s="9"/>
+      <c r="F797" s="10"/>
+    </row>
+    <row r="798" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C798" s="8"/>
+      <c r="E798" s="9"/>
+      <c r="F798" s="10"/>
+    </row>
+    <row r="799" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C799" s="8"/>
+      <c r="E799" s="9"/>
+      <c r="F799" s="10"/>
+    </row>
+    <row r="800" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C800" s="8"/>
+      <c r="E800" s="9"/>
+      <c r="F800" s="10"/>
+    </row>
+    <row r="801" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C801" s="8"/>
+      <c r="E801" s="9"/>
+      <c r="F801" s="10"/>
+    </row>
+    <row r="802" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C802" s="8"/>
+      <c r="E802" s="9"/>
+      <c r="F802" s="10"/>
+    </row>
+    <row r="803" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C803" s="8"/>
+      <c r="E803" s="9"/>
+      <c r="F803" s="10"/>
+    </row>
+    <row r="804" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C804" s="8"/>
+      <c r="E804" s="9"/>
+      <c r="F804" s="10"/>
+    </row>
+    <row r="805" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C805" s="8"/>
+      <c r="E805" s="9"/>
+      <c r="F805" s="10"/>
+    </row>
+    <row r="806" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C806" s="8"/>
+      <c r="E806" s="9"/>
+      <c r="F806" s="10"/>
+    </row>
+    <row r="807" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C807" s="8"/>
+      <c r="E807" s="9"/>
+      <c r="F807" s="10"/>
+    </row>
+    <row r="808" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C808" s="8"/>
+      <c r="E808" s="9"/>
+      <c r="F808" s="10"/>
+    </row>
+    <row r="809" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C809" s="8"/>
+      <c r="E809" s="9"/>
+      <c r="F809" s="10"/>
+    </row>
+    <row r="810" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C810" s="8"/>
+      <c r="E810" s="9"/>
+      <c r="F810" s="10"/>
+    </row>
+    <row r="811" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C811" s="8"/>
+      <c r="E811" s="9"/>
+      <c r="F811" s="10"/>
+    </row>
+    <row r="812" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C812" s="8"/>
+      <c r="E812" s="9"/>
+      <c r="F812" s="10"/>
+    </row>
+    <row r="813" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C813" s="8"/>
+      <c r="E813" s="9"/>
+      <c r="F813" s="10"/>
+    </row>
+    <row r="814" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C814" s="8"/>
+      <c r="E814" s="9"/>
+      <c r="F814" s="10"/>
+    </row>
+    <row r="815" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C815" s="8"/>
+      <c r="E815" s="9"/>
+      <c r="F815" s="10"/>
+    </row>
+    <row r="816" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C816" s="8"/>
+      <c r="E816" s="9"/>
+      <c r="F816" s="10"/>
+    </row>
+    <row r="817" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C817" s="8"/>
+      <c r="E817" s="9"/>
+      <c r="F817" s="10"/>
+    </row>
+    <row r="818" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C818" s="8"/>
+      <c r="E818" s="9"/>
+      <c r="F818" s="10"/>
+    </row>
+    <row r="819" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C819" s="8"/>
+      <c r="E819" s="9"/>
+      <c r="F819" s="10"/>
+    </row>
+    <row r="820" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C820" s="8"/>
+      <c r="E820" s="9"/>
+      <c r="F820" s="10"/>
+    </row>
+    <row r="821" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C821" s="8"/>
+      <c r="E821" s="9"/>
+      <c r="F821" s="10"/>
+    </row>
+    <row r="822" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C822" s="8"/>
+      <c r="E822" s="9"/>
+      <c r="F822" s="10"/>
+    </row>
+    <row r="823" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C823" s="8"/>
+      <c r="E823" s="9"/>
+      <c r="F823" s="10"/>
+    </row>
+    <row r="824" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C824" s="8"/>
+      <c r="E824" s="9"/>
+      <c r="F824" s="10"/>
+    </row>
+    <row r="825" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C825" s="8"/>
+      <c r="E825" s="9"/>
+      <c r="F825" s="10"/>
+    </row>
+    <row r="826" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C826" s="8"/>
+      <c r="E826" s="9"/>
+      <c r="F826" s="10"/>
+    </row>
+    <row r="827" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C827" s="8"/>
+      <c r="E827" s="9"/>
+      <c r="F827" s="10"/>
+    </row>
+    <row r="828" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C828" s="8"/>
+      <c r="E828" s="9"/>
+      <c r="F828" s="10"/>
+    </row>
+    <row r="829" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C829" s="8"/>
+      <c r="E829" s="9"/>
+      <c r="F829" s="10"/>
+    </row>
+    <row r="830" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C830" s="8"/>
+      <c r="E830" s="9"/>
+      <c r="F830" s="10"/>
+    </row>
+    <row r="831" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C831" s="8"/>
+      <c r="E831" s="9"/>
+      <c r="F831" s="10"/>
+    </row>
+    <row r="832" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C832" s="8"/>
+      <c r="E832" s="9"/>
+      <c r="F832" s="10"/>
+    </row>
+    <row r="833" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C833" s="8"/>
+      <c r="E833" s="9"/>
+      <c r="F833" s="10"/>
+    </row>
+    <row r="834" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C834" s="8"/>
+      <c r="E834" s="9"/>
+      <c r="F834" s="10"/>
+    </row>
+    <row r="835" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C835" s="8"/>
+      <c r="E835" s="9"/>
+      <c r="F835" s="10"/>
+    </row>
+    <row r="836" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C836" s="8"/>
+      <c r="E836" s="9"/>
+      <c r="F836" s="10"/>
+    </row>
+    <row r="837" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C837" s="8"/>
+      <c r="E837" s="9"/>
+      <c r="F837" s="10"/>
+    </row>
+    <row r="838" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C838" s="8"/>
+      <c r="E838" s="9"/>
+      <c r="F838" s="10"/>
+    </row>
+    <row r="839" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C839" s="8"/>
+      <c r="E839" s="9"/>
+      <c r="F839" s="10"/>
+    </row>
+    <row r="840" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C840" s="8"/>
+      <c r="E840" s="9"/>
+      <c r="F840" s="10"/>
+    </row>
+    <row r="841" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C841" s="8"/>
+      <c r="E841" s="9"/>
+      <c r="F841" s="10"/>
+    </row>
+    <row r="842" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C842" s="8"/>
+      <c r="E842" s="9"/>
+      <c r="F842" s="10"/>
+    </row>
+    <row r="843" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C843" s="8"/>
+      <c r="E843" s="9"/>
+      <c r="F843" s="10"/>
+    </row>
+    <row r="844" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C844" s="8"/>
+      <c r="E844" s="9"/>
+      <c r="F844" s="10"/>
+    </row>
+    <row r="845" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C845" s="8"/>
+      <c r="E845" s="9"/>
+      <c r="F845" s="10"/>
+    </row>
+    <row r="846" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C846" s="8"/>
+      <c r="E846" s="9"/>
+      <c r="F846" s="10"/>
+    </row>
+    <row r="847" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C847" s="8"/>
+      <c r="E847" s="9"/>
+      <c r="F847" s="10"/>
+    </row>
+    <row r="848" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C848" s="8"/>
+      <c r="E848" s="9"/>
+      <c r="F848" s="10"/>
+    </row>
+    <row r="849" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C849" s="8"/>
+      <c r="E849" s="9"/>
+      <c r="F849" s="10"/>
+    </row>
+    <row r="850" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C850" s="8"/>
+      <c r="E850" s="9"/>
+      <c r="F850" s="10"/>
+    </row>
+    <row r="851" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C851" s="8"/>
+      <c r="E851" s="9"/>
+      <c r="F851" s="10"/>
+    </row>
+    <row r="852" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C852" s="8"/>
+      <c r="E852" s="9"/>
+      <c r="F852" s="10"/>
+    </row>
+    <row r="853" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C853" s="8"/>
+      <c r="E853" s="9"/>
+      <c r="F853" s="10"/>
+    </row>
+    <row r="854" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C854" s="8"/>
+      <c r="E854" s="9"/>
+      <c r="F854" s="10"/>
+    </row>
+    <row r="855" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C855" s="8"/>
+      <c r="E855" s="9"/>
+      <c r="F855" s="10"/>
+    </row>
+    <row r="856" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C856" s="8"/>
+      <c r="E856" s="9"/>
+      <c r="F856" s="10"/>
+    </row>
+    <row r="857" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C857" s="8"/>
+      <c r="E857" s="9"/>
+      <c r="F857" s="10"/>
+    </row>
+    <row r="858" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C858" s="8"/>
+      <c r="E858" s="9"/>
+      <c r="F858" s="10"/>
+    </row>
+    <row r="859" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C859" s="8"/>
+      <c r="E859" s="9"/>
+      <c r="F859" s="10"/>
+    </row>
+    <row r="860" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C860" s="8"/>
+      <c r="E860" s="9"/>
+      <c r="F860" s="10"/>
+    </row>
+    <row r="861" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C861" s="8"/>
+      <c r="E861" s="9"/>
+      <c r="F861" s="10"/>
+    </row>
+    <row r="862" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C862" s="8"/>
+      <c r="E862" s="9"/>
+      <c r="F862" s="10"/>
+    </row>
+    <row r="863" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C863" s="8"/>
+      <c r="E863" s="9"/>
+      <c r="F863" s="10"/>
+    </row>
+    <row r="864" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C864" s="8"/>
+      <c r="E864" s="9"/>
+      <c r="F864" s="10"/>
+    </row>
+    <row r="865" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C865" s="8"/>
+      <c r="E865" s="9"/>
+      <c r="F865" s="10"/>
+    </row>
+    <row r="866" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C866" s="8"/>
+      <c r="E866" s="9"/>
+      <c r="F866" s="10"/>
+    </row>
+    <row r="867" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C867" s="8"/>
+      <c r="E867" s="9"/>
+      <c r="F867" s="10"/>
+    </row>
+    <row r="868" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C868" s="8"/>
+      <c r="E868" s="9"/>
+      <c r="F868" s="10"/>
+    </row>
+    <row r="869" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C869" s="8"/>
+      <c r="E869" s="9"/>
+      <c r="F869" s="10"/>
+    </row>
+    <row r="870" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C870" s="8"/>
+      <c r="E870" s="9"/>
+      <c r="F870" s="10"/>
+    </row>
+    <row r="871" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C871" s="8"/>
+      <c r="E871" s="9"/>
+      <c r="F871" s="10"/>
+    </row>
+    <row r="872" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C872" s="8"/>
+      <c r="E872" s="9"/>
+      <c r="F872" s="10"/>
+    </row>
+    <row r="873" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C873" s="8"/>
+      <c r="E873" s="9"/>
+      <c r="F873" s="10"/>
+    </row>
+    <row r="874" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C874" s="8"/>
+      <c r="E874" s="9"/>
+      <c r="F874" s="10"/>
+    </row>
+    <row r="875" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C875" s="8"/>
+      <c r="E875" s="9"/>
+      <c r="F875" s="10"/>
+    </row>
+    <row r="876" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C876" s="8"/>
+      <c r="E876" s="9"/>
+      <c r="F876" s="10"/>
+    </row>
+    <row r="877" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C877" s="8"/>
+      <c r="E877" s="9"/>
+      <c r="F877" s="10"/>
+    </row>
+    <row r="878" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C878" s="8"/>
+      <c r="E878" s="9"/>
+      <c r="F878" s="10"/>
+    </row>
+    <row r="879" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C879" s="8"/>
+      <c r="E879" s="9"/>
+      <c r="F879" s="10"/>
+    </row>
+    <row r="880" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C880" s="8"/>
+      <c r="E880" s="9"/>
+      <c r="F880" s="10"/>
+    </row>
+    <row r="881" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C881" s="8"/>
+      <c r="E881" s="9"/>
+      <c r="F881" s="10"/>
+    </row>
+    <row r="882" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C882" s="8"/>
+      <c r="E882" s="9"/>
+      <c r="F882" s="10"/>
+    </row>
+    <row r="883" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C883" s="8"/>
+      <c r="E883" s="9"/>
+      <c r="F883" s="10"/>
+    </row>
+    <row r="884" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C884" s="8"/>
+      <c r="E884" s="9"/>
+      <c r="F884" s="10"/>
+    </row>
+    <row r="885" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C885" s="8"/>
+      <c r="E885" s="9"/>
+      <c r="F885" s="10"/>
+    </row>
+    <row r="886" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C886" s="8"/>
+      <c r="E886" s="9"/>
+      <c r="F886" s="10"/>
+    </row>
+    <row r="887" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C887" s="8"/>
+      <c r="E887" s="9"/>
+      <c r="F887" s="10"/>
+    </row>
+    <row r="888" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C888" s="8"/>
+      <c r="E888" s="9"/>
+      <c r="F888" s="10"/>
+    </row>
+    <row r="889" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C889" s="8"/>
+      <c r="E889" s="9"/>
+      <c r="F889" s="10"/>
+    </row>
+    <row r="890" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C890" s="8"/>
+      <c r="E890" s="9"/>
+      <c r="F890" s="10"/>
+    </row>
+    <row r="891" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C891" s="8"/>
+      <c r="E891" s="9"/>
+      <c r="F891" s="10"/>
+    </row>
+    <row r="892" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C892" s="8"/>
+      <c r="E892" s="9"/>
+      <c r="F892" s="10"/>
+    </row>
+    <row r="893" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C893" s="8"/>
+      <c r="E893" s="9"/>
+      <c r="F893" s="10"/>
+    </row>
+    <row r="894" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C894" s="8"/>
+      <c r="E894" s="9"/>
+      <c r="F894" s="10"/>
+    </row>
+    <row r="895" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C895" s="8"/>
+      <c r="E895" s="9"/>
+      <c r="F895" s="10"/>
+    </row>
+    <row r="896" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C896" s="8"/>
+      <c r="E896" s="9"/>
+      <c r="F896" s="10"/>
+    </row>
+    <row r="897" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C897" s="8"/>
+      <c r="E897" s="9"/>
+      <c r="F897" s="10"/>
+    </row>
+    <row r="898" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C898" s="8"/>
+      <c r="E898" s="9"/>
+      <c r="F898" s="10"/>
+    </row>
+    <row r="899" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C899" s="8"/>
+      <c r="E899" s="9"/>
+      <c r="F899" s="10"/>
+    </row>
+    <row r="900" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C900" s="8"/>
+      <c r="E900" s="9"/>
+      <c r="F900" s="10"/>
+    </row>
+    <row r="901" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C901" s="8"/>
+      <c r="E901" s="9"/>
+      <c r="F901" s="10"/>
+    </row>
+    <row r="902" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C902" s="8"/>
+      <c r="E902" s="9"/>
+      <c r="F902" s="10"/>
+    </row>
+    <row r="903" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C903" s="8"/>
+      <c r="E903" s="9"/>
+      <c r="F903" s="10"/>
+    </row>
+    <row r="904" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C904" s="8"/>
+      <c r="E904" s="9"/>
+      <c r="F904" s="10"/>
+    </row>
+    <row r="905" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C905" s="8"/>
+      <c r="E905" s="9"/>
+      <c r="F905" s="10"/>
+    </row>
+    <row r="906" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C906" s="8"/>
+      <c r="E906" s="9"/>
+      <c r="F906" s="10"/>
+    </row>
+    <row r="907" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C907" s="8"/>
+      <c r="E907" s="9"/>
+      <c r="F907" s="10"/>
+    </row>
+    <row r="908" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C908" s="8"/>
+      <c r="E908" s="9"/>
+      <c r="F908" s="10"/>
+    </row>
+    <row r="909" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C909" s="8"/>
+      <c r="E909" s="9"/>
+      <c r="F909" s="10"/>
+    </row>
+    <row r="910" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C910" s="8"/>
+      <c r="E910" s="9"/>
+      <c r="F910" s="10"/>
+    </row>
+    <row r="911" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C911" s="8"/>
+      <c r="E911" s="9"/>
+      <c r="F911" s="10"/>
+    </row>
+    <row r="912" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C912" s="8"/>
+      <c r="E912" s="9"/>
+      <c r="F912" s="10"/>
+    </row>
+    <row r="913" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C913" s="8"/>
+      <c r="E913" s="9"/>
+      <c r="F913" s="10"/>
+    </row>
+    <row r="914" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C914" s="8"/>
+      <c r="E914" s="9"/>
+      <c r="F914" s="10"/>
+    </row>
+    <row r="915" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C915" s="8"/>
+      <c r="E915" s="9"/>
+      <c r="F915" s="10"/>
+    </row>
+    <row r="916" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C916" s="8"/>
+      <c r="E916" s="9"/>
+      <c r="F916" s="10"/>
+    </row>
+    <row r="917" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C917" s="8"/>
+      <c r="E917" s="9"/>
+      <c r="F917" s="10"/>
+    </row>
+    <row r="918" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C918" s="8"/>
+      <c r="E918" s="9"/>
+      <c r="F918" s="10"/>
+    </row>
+    <row r="919" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C919" s="8"/>
+      <c r="E919" s="9"/>
+      <c r="F919" s="10"/>
+    </row>
+    <row r="920" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C920" s="8"/>
+      <c r="E920" s="9"/>
+      <c r="F920" s="10"/>
+    </row>
+    <row r="921" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C921" s="8"/>
+      <c r="E921" s="9"/>
+      <c r="F921" s="10"/>
+    </row>
+    <row r="922" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C922" s="8"/>
+      <c r="E922" s="9"/>
+      <c r="F922" s="10"/>
+    </row>
+    <row r="923" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C923" s="8"/>
+      <c r="E923" s="9"/>
+      <c r="F923" s="10"/>
+    </row>
+    <row r="924" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C924" s="8"/>
+      <c r="E924" s="9"/>
+      <c r="F924" s="10"/>
+    </row>
+    <row r="925" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C925" s="8"/>
+      <c r="E925" s="9"/>
+      <c r="F925" s="10"/>
+    </row>
+    <row r="926" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C926" s="8"/>
+      <c r="E926" s="9"/>
+      <c r="F926" s="10"/>
+    </row>
+    <row r="927" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C927" s="8"/>
+      <c r="E927" s="9"/>
+      <c r="F927" s="10"/>
+    </row>
+    <row r="928" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C928" s="8"/>
+      <c r="E928" s="9"/>
+      <c r="F928" s="10"/>
+    </row>
+    <row r="929" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C929" s="8"/>
+      <c r="E929" s="9"/>
+      <c r="F929" s="10"/>
+    </row>
+    <row r="930" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C930" s="8"/>
+      <c r="E930" s="9"/>
+      <c r="F930" s="10"/>
+    </row>
+    <row r="931" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C931" s="8"/>
+      <c r="E931" s="9"/>
+      <c r="F931" s="10"/>
+    </row>
+    <row r="932" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C932" s="8"/>
+      <c r="E932" s="9"/>
+      <c r="F932" s="10"/>
+    </row>
+    <row r="933" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C933" s="8"/>
+      <c r="E933" s="9"/>
+      <c r="F933" s="10"/>
+    </row>
+    <row r="934" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C934" s="8"/>
+      <c r="E934" s="9"/>
+      <c r="F934" s="10"/>
+    </row>
+    <row r="935" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C935" s="8"/>
+      <c r="E935" s="9"/>
+      <c r="F935" s="10"/>
+    </row>
+    <row r="936" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C936" s="8"/>
+      <c r="E936" s="9"/>
+      <c r="F936" s="10"/>
+    </row>
+    <row r="937" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C937" s="8"/>
+      <c r="E937" s="9"/>
+      <c r="F937" s="10"/>
+    </row>
+    <row r="938" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C938" s="8"/>
+      <c r="E938" s="9"/>
+      <c r="F938" s="10"/>
+    </row>
+    <row r="939" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C939" s="8"/>
+      <c r="E939" s="9"/>
+      <c r="F939" s="10"/>
+    </row>
+    <row r="940" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C940" s="8"/>
+      <c r="E940" s="9"/>
+      <c r="F940" s="10"/>
+    </row>
+    <row r="941" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C941" s="8"/>
+      <c r="E941" s="9"/>
+      <c r="F941" s="10"/>
+    </row>
+    <row r="942" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C942" s="8"/>
+      <c r="E942" s="9"/>
+      <c r="F942" s="10"/>
+    </row>
+    <row r="943" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C943" s="8"/>
+      <c r="E943" s="9"/>
+      <c r="F943" s="10"/>
+    </row>
+    <row r="944" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C944" s="8"/>
+      <c r="E944" s="9"/>
+      <c r="F944" s="10"/>
+    </row>
+    <row r="945" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C945" s="8"/>
+      <c r="E945" s="9"/>
+      <c r="F945" s="10"/>
+    </row>
+    <row r="946" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C946" s="8"/>
+      <c r="E946" s="9"/>
+      <c r="F946" s="10"/>
+    </row>
+    <row r="947" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C947" s="8"/>
+      <c r="E947" s="9"/>
+      <c r="F947" s="10"/>
+    </row>
+    <row r="948" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C948" s="8"/>
+      <c r="E948" s="9"/>
+      <c r="F948" s="10"/>
+    </row>
+    <row r="949" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C949" s="8"/>
+      <c r="E949" s="9"/>
+      <c r="F949" s="10"/>
+    </row>
+    <row r="950" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C950" s="8"/>
+      <c r="E950" s="9"/>
+      <c r="F950" s="10"/>
+    </row>
+    <row r="951" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C951" s="8"/>
+      <c r="E951" s="9"/>
+      <c r="F951" s="10"/>
+    </row>
+    <row r="952" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C952" s="8"/>
+      <c r="E952" s="9"/>
+      <c r="F952" s="10"/>
+    </row>
+    <row r="953" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C953" s="8"/>
+      <c r="E953" s="9"/>
+      <c r="F953" s="10"/>
+    </row>
+    <row r="954" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C954" s="8"/>
+      <c r="E954" s="9"/>
+      <c r="F954" s="10"/>
+    </row>
+    <row r="955" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C955" s="8"/>
+      <c r="E955" s="9"/>
+      <c r="F955" s="10"/>
+    </row>
+    <row r="956" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C956" s="8"/>
+      <c r="E956" s="9"/>
+      <c r="F956" s="10"/>
+    </row>
+    <row r="957" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C957" s="8"/>
+      <c r="E957" s="9"/>
+      <c r="F957" s="10"/>
+    </row>
+    <row r="958" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C958" s="8"/>
+      <c r="E958" s="9"/>
+      <c r="F958" s="10"/>
+    </row>
+    <row r="959" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C959" s="8"/>
+      <c r="E959" s="9"/>
+      <c r="F959" s="10"/>
+    </row>
+    <row r="960" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C960" s="8"/>
+      <c r="E960" s="9"/>
+      <c r="F960" s="10"/>
+    </row>
+    <row r="961" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C961" s="8"/>
+      <c r="E961" s="9"/>
+      <c r="F961" s="10"/>
+    </row>
+    <row r="962" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C962" s="8"/>
+      <c r="E962" s="9"/>
+      <c r="F962" s="10"/>
+    </row>
+    <row r="963" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C963" s="8"/>
+      <c r="E963" s="9"/>
+      <c r="F963" s="10"/>
+    </row>
+    <row r="964" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C964" s="8"/>
+      <c r="E964" s="9"/>
+      <c r="F964" s="10"/>
+    </row>
+    <row r="965" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C965" s="8"/>
+      <c r="E965" s="9"/>
+      <c r="F965" s="10"/>
+    </row>
+    <row r="966" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C966" s="8"/>
+      <c r="E966" s="9"/>
+      <c r="F966" s="10"/>
+    </row>
+    <row r="967" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C967" s="8"/>
+      <c r="E967" s="9"/>
+      <c r="F967" s="10"/>
+    </row>
+    <row r="968" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C968" s="8"/>
+      <c r="E968" s="9"/>
+      <c r="F968" s="10"/>
+    </row>
+    <row r="969" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C969" s="8"/>
+      <c r="E969" s="9"/>
+      <c r="F969" s="10"/>
+    </row>
+    <row r="970" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C970" s="8"/>
+      <c r="E970" s="9"/>
+      <c r="F970" s="10"/>
+    </row>
+    <row r="971" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C971" s="8"/>
+      <c r="E971" s="9"/>
+      <c r="F971" s="10"/>
+    </row>
+    <row r="972" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C972" s="8"/>
+      <c r="E972" s="9"/>
+      <c r="F972" s="10"/>
+    </row>
+    <row r="973" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C973" s="8"/>
+      <c r="E973" s="9"/>
+      <c r="F973" s="10"/>
+    </row>
+    <row r="974" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C974" s="8"/>
+      <c r="E974" s="9"/>
+      <c r="F974" s="10"/>
+    </row>
+    <row r="975" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C975" s="8"/>
+      <c r="E975" s="9"/>
+      <c r="F975" s="10"/>
+    </row>
+    <row r="976" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C976" s="8"/>
+      <c r="E976" s="9"/>
+      <c r="F976" s="10"/>
+    </row>
+    <row r="977" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C977" s="8"/>
+      <c r="E977" s="9"/>
+      <c r="F977" s="10"/>
+    </row>
+    <row r="978" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C978" s="8"/>
+      <c r="E978" s="9"/>
+      <c r="F978" s="10"/>
+    </row>
+    <row r="979" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C979" s="8"/>
+      <c r="E979" s="9"/>
+      <c r="F979" s="10"/>
+    </row>
+    <row r="980" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C980" s="8"/>
+      <c r="E980" s="9"/>
+      <c r="F980" s="10"/>
+    </row>
+    <row r="981" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C981" s="8"/>
+      <c r="E981" s="9"/>
+      <c r="F981" s="10"/>
+    </row>
+    <row r="982" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C982" s="8"/>
+      <c r="E982" s="9"/>
+      <c r="F982" s="10"/>
+    </row>
+    <row r="983" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C983" s="8"/>
+      <c r="E983" s="9"/>
+      <c r="F983" s="10"/>
+    </row>
+    <row r="984" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C984" s="8"/>
+      <c r="E984" s="9"/>
+      <c r="F984" s="10"/>
+    </row>
+    <row r="985" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C985" s="8"/>
+      <c r="E985" s="9"/>
+      <c r="F985" s="10"/>
+    </row>
+    <row r="986" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C986" s="8"/>
+      <c r="E986" s="9"/>
+      <c r="F986" s="10"/>
+    </row>
+    <row r="987" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C987" s="8"/>
+      <c r="E987" s="9"/>
+      <c r="F987" s="10"/>
+    </row>
+    <row r="988" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C988" s="8"/>
+      <c r="E988" s="9"/>
+      <c r="F988" s="10"/>
+    </row>
+    <row r="989" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C989" s="8"/>
+      <c r="E989" s="9"/>
+      <c r="F989" s="10"/>
+    </row>
+    <row r="990" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C990" s="8"/>
+      <c r="E990" s="9"/>
+      <c r="F990" s="10"/>
+    </row>
+    <row r="991" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C991" s="8"/>
+      <c r="E991" s="9"/>
+      <c r="F991" s="10"/>
+    </row>
+    <row r="992" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C992" s="8"/>
+      <c r="E992" s="9"/>
+      <c r="F992" s="10"/>
+    </row>
+    <row r="993" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C993" s="8"/>
+      <c r="E993" s="9"/>
+      <c r="F993" s="10"/>
+    </row>
+    <row r="994" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C994" s="8"/>
+      <c r="E994" s="9"/>
+      <c r="F994" s="10"/>
+    </row>
+    <row r="995" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C995" s="8"/>
+      <c r="E995" s="9"/>
+      <c r="F995" s="10"/>
+    </row>
+    <row r="996" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C996" s="8"/>
+      <c r="E996" s="9"/>
+      <c r="F996" s="10"/>
+    </row>
+    <row r="997" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C997" s="8"/>
+      <c r="E997" s="9"/>
+      <c r="F997" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/python/resources/Patients_Catalog.xlsx
+++ b/python/resources/Patients_Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\BioTAU\Huntington\python\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E3E352-BEEB-4447-9786-FCC4F687E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DE6A58-821D-49CC-AD91-655E983A10AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="82">
   <si>
     <t>Cell_Type</t>
   </si>
@@ -45,9 +45,6 @@
     <t>CAP_Score</t>
   </si>
   <si>
-    <t xml:space="preserve"> Disease_Severity</t>
-  </si>
-  <si>
     <t>HC</t>
   </si>
   <si>
@@ -63,18 +60,12 @@
     <t>AG16146</t>
   </si>
   <si>
-    <t>HD</t>
-  </si>
-  <si>
     <t>GM00305</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t xml:space="preserve"> Severe</t>
-  </si>
-  <si>
     <t>GM00726</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>GM04196</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mild</t>
-  </si>
-  <si>
     <t>GM04200</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>GM04689</t>
   </si>
   <si>
-    <t xml:space="preserve"> Premanifest</t>
-  </si>
-  <si>
     <t>GM04691</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>GM04719</t>
   </si>
   <si>
-    <t>Premanifest</t>
-  </si>
-  <si>
     <t>GM04721</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>HGPS</t>
   </si>
   <si>
-    <t>HGADFN0013</t>
-  </si>
-  <si>
     <t>HGADFN0122</t>
   </si>
   <si>
@@ -277,6 +256,21 @@
   </si>
   <si>
     <t>NA7525</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>HGADFN0143</t>
+  </si>
+  <si>
+    <t>HD_Severe</t>
+  </si>
+  <si>
+    <t>HD_Mild</t>
+  </si>
+  <si>
+    <t>HD_Premanifest</t>
   </si>
 </sst>
 </file>
@@ -571,25 +565,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G997"/>
+  <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="6.88671875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="26" width="8.6640625" customWidth="1"/>
+    <col min="7" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,68 +601,59 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="6">
         <v>1.5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="7">
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7">
         <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7">
         <v>45</v>
@@ -677,91 +661,79 @@
       <c r="F4" s="6">
         <v>129.4299</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="7">
         <v>44</v>
@@ -769,22 +741,19 @@
       <c r="F8" s="6">
         <v>118.64409999999999</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7">
         <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="7">
         <v>46</v>
@@ -792,22 +761,19 @@
       <c r="F9" s="6">
         <v>140.5239</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
         <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7">
         <v>44</v>
@@ -815,22 +781,19 @@
       <c r="F10" s="6">
         <v>110.0154</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="7">
         <v>46</v>
@@ -838,22 +801,19 @@
       <c r="F11" s="6">
         <v>130.6626</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7">
         <v>43</v>
@@ -861,22 +821,19 @@
       <c r="F12" s="6">
         <v>100.1541</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="7">
         <v>51</v>
@@ -884,22 +841,19 @@
       <c r="F13" s="6">
         <v>129.4299</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7">
         <v>49</v>
@@ -907,22 +861,19 @@
       <c r="F14" s="6">
         <v>125.886</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7">
         <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="7">
         <v>45</v>
@@ -930,22 +881,19 @@
       <c r="F15" s="6">
         <v>131.74109999999999</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7">
         <v>50</v>
@@ -953,22 +901,19 @@
       <c r="F16" s="6">
         <v>114.02160000000001</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" s="7">
         <v>45</v>
@@ -976,22 +921,19 @@
       <c r="F17" s="6">
         <v>69.337440000000001</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="7">
         <v>54</v>
@@ -999,22 +941,19 @@
       <c r="F18" s="6">
         <v>114.6379</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="7">
         <v>45</v>
@@ -1022,22 +961,19 @@
       <c r="F19" s="6">
         <v>76.271190000000004</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
         <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="7">
         <v>49</v>
@@ -1045,22 +981,19 @@
       <c r="F20" s="6">
         <v>111.24809999999999</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="7">
         <v>48</v>
@@ -1068,22 +1001,19 @@
       <c r="F21" s="6">
         <v>110.93989999999999</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="7">
         <v>41</v>
@@ -1091,22 +1021,19 @@
       <c r="F22" s="6">
         <v>74.576269999999994</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7">
         <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" s="7">
         <v>44</v>
@@ -1114,22 +1041,19 @@
       <c r="F23" s="6">
         <v>84.129429999999999</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C24" s="7">
         <v>37</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24" s="7">
         <v>46</v>
@@ -1137,22 +1061,19 @@
       <c r="F24" s="6">
         <v>91.217259999999996</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="7">
         <v>46</v>
@@ -1160,22 +1081,19 @@
       <c r="F25" s="6">
         <v>106.00920000000001</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
         <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="7">
         <v>43</v>
@@ -1183,22 +1101,19 @@
       <c r="F26" s="6">
         <v>94.144840000000002</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7">
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="7">
         <v>50</v>
@@ -1206,22 +1121,19 @@
       <c r="F27" s="6">
         <v>126.34820000000001</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7">
         <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="7">
         <v>43</v>
@@ -1229,22 +1141,19 @@
       <c r="F28" s="6">
         <v>96.147919999999999</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="7">
         <v>47</v>
@@ -1252,22 +1161,19 @@
       <c r="F29" s="6">
         <v>60.24653</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7">
         <v>31</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="7">
         <v>46</v>
@@ -1275,22 +1181,19 @@
       <c r="F30" s="6">
         <v>76.425269999999998</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31" s="7">
         <v>54</v>
@@ -1298,22 +1201,19 @@
       <c r="F31" s="6">
         <v>103.54389999999999</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>48</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32" s="7">
         <v>45</v>
@@ -1321,22 +1221,19 @@
       <c r="F32" s="6">
         <v>110.93989999999999</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C33" s="7">
         <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="7">
         <v>45</v>
@@ -1344,22 +1241,19 @@
       <c r="F33" s="6">
         <v>138.67490000000001</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C34" s="7">
         <v>56</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" s="7">
         <v>45</v>
@@ -1367,848 +1261,758 @@
       <c r="F34" s="6">
         <v>129.4299</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C35" s="7">
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C38" s="6">
         <v>3.75</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C39" s="6">
         <v>8.5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C40" s="6">
         <v>2.25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C41" s="6">
         <v>1.25</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C43" s="7">
         <v>48</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C45" s="7">
         <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C46" s="7">
         <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C47" s="7">
         <v>68</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C48" s="7">
         <v>61</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C49" s="7">
         <v>51</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C50" s="7">
         <v>62</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C51" s="7">
         <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C52" s="7">
         <v>53</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C53" s="7">
         <v>68</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C54" s="7">
         <v>49</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7">
         <v>48</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C56" s="7">
         <v>40</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C57" s="7">
         <v>50</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C58" s="7">
         <v>51</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C59" s="7">
         <v>46</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C60" s="7">
         <v>50</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C61" s="7">
         <v>48</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C62" s="7">
         <v>52</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C63" s="7">
         <v>61</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C64" s="7">
         <v>56</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C65" s="7">
         <v>50</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C66" s="7">
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C67" s="7">
         <v>43</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C68" s="7">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="8"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="8"/>
       <c r="E70" s="9"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="8"/>
       <c r="E71" s="9"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="8"/>
       <c r="E72" s="9"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="8"/>
       <c r="E73" s="9"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="8"/>
       <c r="E74" s="9"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="8"/>
       <c r="E75" s="9"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="8"/>
       <c r="E76" s="9"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="8"/>
       <c r="E78" s="9"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="8"/>
       <c r="E79" s="9"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="8"/>
       <c r="E80" s="9"/>
       <c r="F80" s="10"/>

--- a/python/resources/Patients_Catalog.xlsx
+++ b/python/resources/Patients_Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\BioTAU\Huntington\python\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DE6A58-821D-49CC-AD91-655E983A10AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84E2FD-E26B-4324-88E4-707FB73BE441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="82">
   <si>
-    <t>Cell_Type</t>
-  </si>
-  <si>
     <t>Patient_ID</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>HD_Premanifest</t>
+  </si>
+  <si>
+    <t>Disease_Status</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
   </sheetPr>
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -584,76 +584,76 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="6">
         <v>1.5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7">
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7">
         <v>45</v>
@@ -664,76 +664,76 @@
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7">
         <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7">
         <v>44</v>
@@ -744,16 +744,16 @@
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="7">
         <v>46</v>
@@ -764,16 +764,16 @@
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7">
         <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7">
         <v>44</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="7">
         <v>46</v>
@@ -804,16 +804,16 @@
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="7">
         <v>43</v>
@@ -824,16 +824,16 @@
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="7">
         <v>51</v>
@@ -844,16 +844,16 @@
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="7">
         <v>49</v>
@@ -864,16 +864,16 @@
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7">
         <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="7">
         <v>45</v>
@@ -884,16 +884,16 @@
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7">
         <v>50</v>
@@ -904,16 +904,16 @@
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7">
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7">
         <v>45</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="7">
         <v>54</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="7">
         <v>45</v>
@@ -964,16 +964,16 @@
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
         <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="7">
         <v>49</v>
@@ -984,16 +984,16 @@
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
         <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="7">
         <v>48</v>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="7">
         <v>41</v>
@@ -1024,16 +1024,16 @@
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="7">
         <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="7">
         <v>44</v>
@@ -1044,16 +1044,16 @@
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="7">
         <v>37</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="7">
         <v>46</v>
@@ -1064,16 +1064,16 @@
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
         <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="7">
         <v>46</v>
@@ -1084,16 +1084,16 @@
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
         <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="7">
         <v>43</v>
@@ -1104,16 +1104,16 @@
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7">
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="7">
         <v>50</v>
@@ -1124,16 +1124,16 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7">
         <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="7">
         <v>43</v>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="7">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="7">
         <v>47</v>
@@ -1164,16 +1164,16 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="7">
         <v>31</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="7">
         <v>46</v>
@@ -1184,16 +1184,16 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="7">
         <v>54</v>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>48</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="7">
         <v>45</v>
@@ -1224,16 +1224,16 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="7">
         <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="7">
         <v>45</v>
@@ -1244,16 +1244,16 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="7">
         <v>56</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="7">
         <v>45</v>
@@ -1264,702 +1264,702 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="7">
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C37" s="7">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6">
         <v>3.75</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="6">
         <v>8.5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6">
         <v>2.25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="6">
         <v>1.25</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="7">
         <v>48</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="7">
         <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="7">
         <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="7">
         <v>68</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="7">
         <v>61</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="7">
         <v>51</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="7">
         <v>62</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="7">
         <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="7">
         <v>53</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="7">
         <v>68</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="7">
         <v>49</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="7">
         <v>48</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="7">
         <v>40</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="7">
         <v>50</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="7">
         <v>51</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="7">
         <v>46</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="7">
         <v>50</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="7">
         <v>48</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="7">
         <v>52</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="7">
         <v>61</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="7">
         <v>56</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="7">
         <v>50</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="7">
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="7">
         <v>43</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="7">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="8">
         <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/python/resources/Patients_Catalog.xlsx
+++ b/python/resources/Patients_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\BioTAU\Huntington\python\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84E2FD-E26B-4324-88E4-707FB73BE441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4B6442-CD47-414B-B553-26AFF11E1325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="336" windowWidth="10980" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>CAP_Score</t>
   </si>
   <si>
-    <t>HC</t>
-  </si>
-  <si>
     <t>AG0015</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Disease_Status</t>
+  </si>
+  <si>
+    <t>Healthy</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:F997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -584,7 +584,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -604,56 +604,56 @@
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="6">
         <v>1.5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="7">
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7">
         <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7">
         <v>45</v>
@@ -664,76 +664,76 @@
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7">
         <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7">
         <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="7">
         <v>44</v>
@@ -744,16 +744,16 @@
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7">
         <v>46</v>
@@ -764,16 +764,16 @@
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7">
         <v>44</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="7">
         <v>46</v>
@@ -804,16 +804,16 @@
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
         <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="7">
         <v>43</v>
@@ -824,16 +824,16 @@
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="7">
         <v>51</v>
@@ -844,16 +844,16 @@
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="7">
         <v>49</v>
@@ -864,16 +864,16 @@
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7">
         <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7">
         <v>45</v>
@@ -884,16 +884,16 @@
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="7">
         <v>50</v>
@@ -904,16 +904,16 @@
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="7">
         <v>45</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="7">
         <v>54</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="7">
         <v>45</v>
@@ -964,16 +964,16 @@
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7">
         <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="7">
         <v>49</v>
@@ -984,16 +984,16 @@
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
         <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="7">
         <v>48</v>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
         <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="7">
         <v>41</v>
@@ -1024,16 +1024,16 @@
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="7">
         <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="7">
         <v>44</v>
@@ -1044,16 +1044,16 @@
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>37</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="7">
         <v>46</v>
@@ -1064,16 +1064,16 @@
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="7">
         <v>46</v>
@@ -1084,16 +1084,16 @@
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
         <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="7">
         <v>43</v>
@@ -1104,16 +1104,16 @@
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="7">
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="7">
         <v>50</v>
@@ -1124,16 +1124,16 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7">
         <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="7">
         <v>43</v>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="7">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="7">
         <v>47</v>
@@ -1164,16 +1164,16 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7">
         <v>31</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="7">
         <v>46</v>
@@ -1184,16 +1184,16 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="7">
         <v>54</v>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>48</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="7">
         <v>45</v>
@@ -1224,16 +1224,16 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="7">
         <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="7">
         <v>45</v>
@@ -1244,16 +1244,16 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="7">
         <v>56</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="7">
         <v>45</v>
@@ -1264,702 +1264,702 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="7">
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C37" s="7">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="6">
         <v>3.75</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="6">
         <v>8.5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="6">
         <v>2.25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="6">
         <v>1.25</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>5</v>
+      <c r="A43" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7">
         <v>48</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>5</v>
+      <c r="A45" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="7">
         <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>5</v>
+      <c r="A46" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="7">
         <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>5</v>
+      <c r="A47" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="7">
         <v>68</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>5</v>
+      <c r="A48" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="7">
         <v>61</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>5</v>
+      <c r="A49" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="7">
         <v>51</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>5</v>
+      <c r="A50" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="7">
         <v>62</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>5</v>
+      <c r="A51" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="7">
         <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="7">
         <v>53</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>5</v>
+      <c r="A53" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="7">
         <v>68</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>5</v>
+      <c r="A54" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="7">
         <v>49</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>5</v>
+      <c r="A55" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="7">
         <v>48</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>5</v>
+      <c r="A56" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="7">
         <v>40</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="7">
         <v>50</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="7">
         <v>51</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>5</v>
+      <c r="A59" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="7">
         <v>46</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>5</v>
+      <c r="A60" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="7">
         <v>50</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>5</v>
+      <c r="A61" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="7">
         <v>48</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="7">
         <v>52</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="7">
         <v>61</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="7">
         <v>56</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>5</v>
+      <c r="A65" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="7">
         <v>50</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="7">
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>5</v>
+      <c r="A67" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="7">
         <v>43</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="7">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>5</v>
+      <c r="A69" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="8">
         <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
